--- a/datasets/moves.xlsx
+++ b/datasets/moves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongwei.lai/Documents/Personal/mini-app/nutri/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3268B1-43EF-4542-8797-84EDB4F0C10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301B7E96-DD86-A04E-A69F-FD28B80883D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="531">
   <si>
     <t>key</t>
   </si>
@@ -919,6 +919,816 @@
   </si>
   <si>
     <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Cable-Rear-Pulldown.2022-07-06-16_24_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Incline-Barbell-Row.2022-07-06-16_05_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Full-Range-Of-Motion-Lat-Pulldown.2022-07-06-16_06_48.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Row.2022-07-06-16_09_07.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Double-Cable-Neutral-Grip-Lat-Pulldown-On-Floor.2022-07-06-16_11_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/close-grip-cable-row.2022-07-06-16_08_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Rear-Pulldown.2022-07-06-15_44_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-One-Arm-Lat-Pulldown.2022-07-06-15_44_19.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Bent-Over-Row.2022-07-06-15_46_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Romanian-Deadlift.2022-07-06-15_48_19.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Assisted-Pull-up.2022-07-06-15_49_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Behind-The-Neck-Pull-up.2022-07-06-15_42_29.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Sumo-Deadlift.2022-07-06-15_47_58.gif</t>
+  </si>
+  <si>
+    <t>上斜杠铃划船</t>
+  </si>
+  <si>
+    <t>背阔肌全程下拉</t>
+  </si>
+  <si>
+    <t>单臂哑铃划船</t>
+  </si>
+  <si>
+    <t>跪姿高位下拉</t>
+  </si>
+  <si>
+    <t>坐姿V把划船</t>
+  </si>
+  <si>
+    <t>单臂高位下拉</t>
+  </si>
+  <si>
+    <t>绳索俯身划船</t>
+  </si>
+  <si>
+    <t>杠铃罗马尼亚硬拉</t>
+  </si>
+  <si>
+    <t>辅助引体向上</t>
+  </si>
+  <si>
+    <t>颈后引体向上</t>
+  </si>
+  <si>
+    <t>杠铃相扑硬拉</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Stiff-Leg-Deadlift.2022-07-06-21_57_07.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/hyperextension.2022-07-06-21_47_59.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Twisting-Hyperextension.2022-07-06-21_54_53.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Flat-Bench-Hyperextension.2022-07-06-21_50_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Weighted-Back-Extension.2022-07-06-21_54_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Good-Morning.2022-07-06-21_52_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Smith-Machine-Good-Morning.2022-07-06-21_57_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Pull-Through.2022-07-06-21_51_02.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Good-Morning-With-Resistance-Band.2022-07-06-21_48_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/seated-back-extension.2022-07-06-21_47_09.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Hyperextension-Machine.2022-07-06-21_45_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Hyperextensions.2022-07-06-21_44_17.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Superman-exercise.2022-07-06-21_56_20.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kettlebell-Single-Leg-Deadlift.2022-07-06-21_44_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Straight-Leg-Deadlift.2022-07-06-21_49_16.gif</t>
+  </si>
+  <si>
+    <t>直腿硬拉</t>
+  </si>
+  <si>
+    <t>背屈伸</t>
+  </si>
+  <si>
+    <t>旋转背屈伸</t>
+  </si>
+  <si>
+    <t>平板背屈伸</t>
+  </si>
+  <si>
+    <t>负重背屈伸</t>
+  </si>
+  <si>
+    <t>杠铃早安式</t>
+  </si>
+  <si>
+    <t>史密斯早安式</t>
+  </si>
+  <si>
+    <t>绳索早安式</t>
+  </si>
+  <si>
+    <t>弹力带早安式</t>
+  </si>
+  <si>
+    <t>坐姿背屈伸</t>
+  </si>
+  <si>
+    <t>反向背屈伸</t>
+  </si>
+  <si>
+    <t>平凳反向背屈伸</t>
+  </si>
+  <si>
+    <t>俯卧两头起</t>
+  </si>
+  <si>
+    <t>壶铃单腿硬拉</t>
+  </si>
+  <si>
+    <t>哑铃直腿硬拉</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Upper-Back-Stretch.2022-07-06-16_31_54.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Stretch-With-Towel.2022-07-06-16_33_31.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Reach-Up-Back-rotation-Stretch.2022-07-06-16_35_47.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Side-Bend-Stretch.2022-07-06-16_32_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Shoulder-Stretch-Behind-Back.2022-07-06-16_36_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Across-Chest-Shoulder-Stretch.2022-07-06-15_51_32.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Back-Pec-Stretch.2022-07-06-15_51_11.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Roll-Upper-Back.2022-07-06-16_39_38.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Roll-Rhomboids.2022-07-06-16_40_52.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Foam-Roller-Lat-Stretch.2022-07-06-16_07_46.gif</t>
+  </si>
+  <si>
+    <t>背部拉伸1</t>
+  </si>
+  <si>
+    <t>背部拉伸2</t>
+  </si>
+  <si>
+    <t>背部拉伸3</t>
+  </si>
+  <si>
+    <t>背部拉伸4</t>
+  </si>
+  <si>
+    <t>背部拉伸5</t>
+  </si>
+  <si>
+    <t>背部拉伸6</t>
+  </si>
+  <si>
+    <t>背部拉伸7</t>
+  </si>
+  <si>
+    <t>背部泡沫轴放松1</t>
+  </si>
+  <si>
+    <t>背部泡沫轴放松2</t>
+  </si>
+  <si>
+    <t>背部泡沫轴放松3</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Leg-Curl.2022-07-08-23_40_22.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Trap-Bar-Deadlift.2022-07-09-10_45_01.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Leg-Press.2022-07-08-23_39_10.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Sled-Hack-Squat.2022-07-09-10_52_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Side-Hip-Abduction.2022-07-08-23_36_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Side-Hip-Adduction.2022-07-08-23_38_41.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Horizontal-Leg-Press.2022-07-08-23_35_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/HiP-ABDUCTION-MACHINE.2022-07-08-23_24_37.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/HIP-ADDUCTION-MACHINE.2022-07-08-23_44_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Leg-Raise.2022-07-09-10_46_03.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Hips-Adduction.2022-07-08-23_34_14.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Squat.2022-07-08-23_33_15.gif</t>
+  </si>
+  <si>
+    <t>俯卧腿弯举</t>
+  </si>
+  <si>
+    <t>六角杠铃硬拉</t>
+  </si>
+  <si>
+    <t>倒蹬</t>
+  </si>
+  <si>
+    <t>哈克深蹲</t>
+  </si>
+  <si>
+    <t>站姿腿外展</t>
+  </si>
+  <si>
+    <t>站姿腿内收</t>
+  </si>
+  <si>
+    <t>坐姿腿举</t>
+  </si>
+  <si>
+    <t>腿外展</t>
+  </si>
+  <si>
+    <t>腿内收</t>
+  </si>
+  <si>
+    <t>绳索腿前摆</t>
+  </si>
+  <si>
+    <t>绳索腿内收</t>
+  </si>
+  <si>
+    <t>绳索深蹲</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Smith-Machine-Good-Morning.2022-07-09-10_51_43.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Single-Leg-Press.2022-07-09-10_49_59.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Lunge-Knee.2022-07-09-10_50_32.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Resistance-Band-Lateral-Walk.2022-07-09-10_52_17.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Pistol-Squat.2022-07-08-23_36_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lying-Dumbbell-Leg-Curl.2022-07-08-23_37_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Standing-Leg-Raise.2022-07-08-23_39_34.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Single-Leg-Curl.2022-07-08-23_39_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/leg-curl-on-stability-ball.2022-07-08-23_41_48.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Landmine-Press.2022-07-08-23_41_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kettlebell-Swings.2022-07-08-23_43_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kettlebell-Split-Snatch.2022-07-08-23_43_08.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kettlebell-Pistol-Squats.2022-07-08-23_45_15.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Jump-Squat.2022-07-08-23_44_22.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/High-Knee-Squat.2022-07-08-23_23_33.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Exercise-Ball-Wall-Squat.2022-07-08-23_27_04.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/dumbbell-sumo-squat.2022-07-08-23_28_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Straight-Leg-Deadlift.2022-07-08-23_29_16.gif</t>
+  </si>
+  <si>
+    <t>单腿腿举</t>
+  </si>
+  <si>
+    <t>后退弓箭步</t>
+  </si>
+  <si>
+    <t>弹力带侧跨步</t>
+  </si>
+  <si>
+    <t>单脚深蹲</t>
+  </si>
+  <si>
+    <t>俯卧哑铃腿弯举</t>
+  </si>
+  <si>
+    <t>站姿高抬腿</t>
+  </si>
+  <si>
+    <t>俯卧单腿弯举</t>
+  </si>
+  <si>
+    <t>瑞士球腿弯举</t>
+  </si>
+  <si>
+    <t>地雷架推举</t>
+  </si>
+  <si>
+    <t>壶铃摇摆</t>
+  </si>
+  <si>
+    <t>壶铃抓举</t>
+  </si>
+  <si>
+    <t>壶铃单腿深蹲</t>
+  </si>
+  <si>
+    <t>深蹲跳</t>
+  </si>
+  <si>
+    <t>深蹲提膝</t>
+  </si>
+  <si>
+    <t>瑜伽球深蹲</t>
+  </si>
+  <si>
+    <t>哑铃相扑蹲</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Split-Jump.2022-07-08-23_27_52.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Rear-Lunge.2022-07-08-23_29_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Lunge.2022-07-08-23_31_17.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Lateral-Step-Up.2022-07-08-23_31_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Bulgarian-Split-Squat.2022-07-08-23_33_44.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cossack-Squat.2022-07-08-23_32_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Front-Squat.2022-07-08-23_11_17.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Forward-Lunge.2022-07-08-23_10_28.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bodyweight-Walking-Lunge.2022-07-08-23_10_51.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/BODYWEIGHT-SUMO-SQUAT.2022-07-08-23_12_01.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bodyweight-Squat.2022-07-08-23_17_29.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-sumo-squat.2022-07-08-23_13_01.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Sumo-Deadlift.2022-07-08-23_09_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Step-Up.2022-07-08-23_15_51.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/BARBELL-SQUAT.2022-07-08-23_15_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Romanian-Deadlift.2022-07-08-23_14_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Lunge.2022-07-08-23_17_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Lateral-Lunge.2022-07-08-23_15_00.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Good-Morning.2022-07-08-23_19_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Deadlift.2022-07-08-23_18_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Clean-and-Press-.2022-07-08-23_16_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Bench-Front-Squat.2022-07-08-23_21_02.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Banded-Walk.2022-07-08-23_20_37.gif</t>
+  </si>
+  <si>
+    <t>哑铃分腿跳</t>
+  </si>
+  <si>
+    <t>哑铃后弓步</t>
+  </si>
+  <si>
+    <t>哑铃箭步蹲</t>
+  </si>
+  <si>
+    <t>哑铃侧上阶</t>
+  </si>
+  <si>
+    <t>哑铃保加利亚分腿蹲</t>
+  </si>
+  <si>
+    <t>哥萨克蹲</t>
+  </si>
+  <si>
+    <t>绳索颈前蹲</t>
+  </si>
+  <si>
+    <t>绳索前跨弓箭步</t>
+  </si>
+  <si>
+    <t>自重箭步蹲</t>
+  </si>
+  <si>
+    <t>自重相扑蹲</t>
+  </si>
+  <si>
+    <t>自重深蹲</t>
+  </si>
+  <si>
+    <t>杠铃相扑蹲</t>
+  </si>
+  <si>
+    <t>相扑硬拉</t>
+  </si>
+  <si>
+    <t>杠铃上阶</t>
+  </si>
+  <si>
+    <t>杠铃深蹲</t>
+  </si>
+  <si>
+    <t>罗马尼亚硬拉</t>
+  </si>
+  <si>
+    <t>杠铃箭步蹲</t>
+  </si>
+  <si>
+    <t>杠铃侧向箭步蹲</t>
+  </si>
+  <si>
+    <t>硬拉</t>
+  </si>
+  <si>
+    <t>抓举</t>
+  </si>
+  <si>
+    <t>杠铃颈前平板蹲</t>
+  </si>
+  <si>
+    <t>弹力带行走</t>
+  </si>
+  <si>
+    <t>大腿拉伸1</t>
+  </si>
+  <si>
+    <t>大腿拉伸2</t>
+  </si>
+  <si>
+    <t>大腿拉伸3</t>
+  </si>
+  <si>
+    <t>大腿拉伸4</t>
+  </si>
+  <si>
+    <t>大腿拉伸5</t>
+  </si>
+  <si>
+    <t>大腿拉伸6</t>
+  </si>
+  <si>
+    <t>泡沫轴放松1</t>
+  </si>
+  <si>
+    <t>泡沫轴放松3</t>
+  </si>
+  <si>
+    <t>泡沫轴放松4</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Cross-Leg-Hamstring-Stretch.2022-07-09-10_46_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Wide-Knees-Adductor-Stretch.2022-07-09-10_45_32.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Sitting-Wide-Leg-Adductor-Stretch.2022-07-09-10_53_24.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Adductor-Groin-Stretch.2022-07-09-10_53_39.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kneeling-Quad-Stretch.2022-07-08-23_42_08.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kneeling-Hip-Flexor-Stretch.2022-07-08-23_43_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Foam-Roller-Quads.2022-07-08-23_28_19.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Foam-Roller-IT-iliotibial-Band-Stretch.2022-07-08-23_25_35.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Foam-Roller-Inner-Thigh-Adductor-Stretch.2022-07-08-23_26_09.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Foam-Roller-Hamstrings.2022-07-08-23_26_36.gif</t>
+  </si>
+  <si>
+    <t>腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thigh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Toes-to-Bar.2022-07-07-16_27_54.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-8.2022-07-07-12_19_07.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Crunch-Machine.2022-07-07-16_14_54.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-11.2022-07-07-12_17_47.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled.2022-07-07-12_22_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-7.2022-07-07-12_19_43.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-10.2022-07-07-12_18_12.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-9.2022-07-07-12_18_39.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-6.2022-07-07-12_20_09.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-5.2022-07-07-12_20_42.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-4.2022-07-07-12_21_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Toe-Reaches.2022-07-07-16_28_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/swiss-ball-rollout.2022-07-07-16_29_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Cable-low-to-high-Twist.2022-07-07-16_31_08.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Cable-High-To-Low-Twist.2022-07-07-16_26_29.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Cable-Crunch.2022-07-07-16_07_28.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kneeling-Cable-Crunch.2022-07-07-16_02_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Side-Bend.2022-07-07-12_14_45.gif</t>
+  </si>
+  <si>
+    <t>腹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>悬垂卷腹</t>
+  </si>
+  <si>
+    <t>卷腹机</t>
+  </si>
+  <si>
+    <t>坐姿卷腹</t>
+  </si>
+  <si>
+    <t>十字交叉</t>
+  </si>
+  <si>
+    <t>辅助卷腹</t>
+  </si>
+  <si>
+    <t>跪姿健腹轮</t>
+  </si>
+  <si>
+    <t>杠铃俯身转体</t>
+  </si>
+  <si>
+    <t>山羊侧身转体</t>
+  </si>
+  <si>
+    <t>杠铃健腹轮</t>
+  </si>
+  <si>
+    <t>杠铃体侧屈</t>
+  </si>
+  <si>
+    <t>反向卷腹</t>
+  </si>
+  <si>
+    <t>卷起触脚尖</t>
+  </si>
+  <si>
+    <t>滚瑞士球</t>
+  </si>
+  <si>
+    <t>站立绳索拉举</t>
+  </si>
+  <si>
+    <t>站立绳索伐木</t>
+  </si>
+  <si>
+    <t>站立绳索卷腹</t>
+  </si>
+  <si>
+    <t>绳索卷腹</t>
+  </si>
+  <si>
+    <t>站姿绳索体侧屈</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Seated-Cross-Arm-Twist.2022-07-07-12_13_04.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/burpees.2022-07-07-12_10_27.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bodyweight-Windmill.2022-07-07-12_11_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bear-Crawl.2022-07-07-12_16_47.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Stability-Ball-Knee-Tuck.2022-07-07-16_12_35.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Spider-Plank.2022-07-07-16_05_43.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Sit-ups.2022-07-07-16_15_19.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Side-Plank-Leg-Raises.2022-07-07-16_07_53.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Side-Bridge.2022-07-07-16_06_54.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Side-Crunches.2022-07-07-16_06_28.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Oblique-Twist.2022-07-07-16_13_04.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Flutter-Kick.2022-07-07-16_14_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Bench-Leg-Pull-in.2022-07-07-16_19_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Russian-Twist.2022-07-07-16_13_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Plank-Kicks.2022-07-07-16_20_27.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Crunch-1.2022-07-07-16_21_06.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/plank.2022-07-07-16_19_14.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Plank-Leg-Lift.2022-07-07-15_54_06.gif</t>
+  </si>
+  <si>
+    <t>坐姿绳索转体</t>
+  </si>
+  <si>
+    <t>波比跳</t>
+  </si>
+  <si>
+    <t>站立转体触脚</t>
+  </si>
+  <si>
+    <t>熊爬</t>
+  </si>
+  <si>
+    <t>瑞士球屈膝内收</t>
+  </si>
+  <si>
+    <t>蜘蛛人平板支撑</t>
+  </si>
+  <si>
+    <t>仰卧起坐</t>
+  </si>
+  <si>
+    <t>支撑侧提膝</t>
+  </si>
+  <si>
+    <t>侧桥</t>
+  </si>
+  <si>
+    <t>坐姿侧身卷腹</t>
+  </si>
+  <si>
+    <t>坐姿交替触脚</t>
+  </si>
+  <si>
+    <t>坐姿交替踢腿</t>
+  </si>
+  <si>
+    <t>平板坐姿收腿</t>
+  </si>
+  <si>
+    <t>俄罗斯转体</t>
+  </si>
+  <si>
+    <t>反向平板踢腿</t>
+  </si>
+  <si>
+    <t>平板支撑</t>
+  </si>
+  <si>
+    <t>平板支撑抬腿</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +2164,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F78" sqref="F78"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2880,6 +3691,1111 @@
       </c>
       <c r="C89" t="s">
         <v>231</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" t="s">
+        <v>274</v>
+      </c>
+      <c r="C90" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" t="s">
+        <v>275</v>
+      </c>
+      <c r="C91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3">
+      <c r="B92" t="s">
+        <v>276</v>
+      </c>
+      <c r="C92" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3">
+      <c r="B93" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" t="s">
+        <v>219</v>
+      </c>
+      <c r="C95" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" t="s">
+        <v>279</v>
+      </c>
+      <c r="C96" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" t="s">
+        <v>283</v>
+      </c>
+      <c r="C100" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" t="s">
+        <v>284</v>
+      </c>
+      <c r="C101" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" t="s">
+        <v>300</v>
+      </c>
+      <c r="C102" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" t="s">
+        <v>301</v>
+      </c>
+      <c r="C103" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" t="s">
+        <v>302</v>
+      </c>
+      <c r="C104" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" t="s">
+        <v>303</v>
+      </c>
+      <c r="C105" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" t="s">
+        <v>304</v>
+      </c>
+      <c r="C106" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" t="s">
+        <v>305</v>
+      </c>
+      <c r="C107" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" t="s">
+        <v>306</v>
+      </c>
+      <c r="C108" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" t="s">
+        <v>307</v>
+      </c>
+      <c r="C109" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" t="s">
+        <v>308</v>
+      </c>
+      <c r="C110" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" t="s">
+        <v>309</v>
+      </c>
+      <c r="C111" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" t="s">
+        <v>310</v>
+      </c>
+      <c r="C112" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" t="s">
+        <v>311</v>
+      </c>
+      <c r="C113" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="2:6">
+      <c r="B114" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="2:6">
+      <c r="B115" t="s">
+        <v>313</v>
+      </c>
+      <c r="C115" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="2:6">
+      <c r="B116" t="s">
+        <v>314</v>
+      </c>
+      <c r="C116" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
+        <v>325</v>
+      </c>
+      <c r="C117" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="B118" t="s">
+        <v>326</v>
+      </c>
+      <c r="C118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="119" spans="2:6">
+      <c r="B119" t="s">
+        <v>327</v>
+      </c>
+      <c r="C119" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="120" spans="2:6">
+      <c r="B120" t="s">
+        <v>328</v>
+      </c>
+      <c r="C120" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="121" spans="2:6">
+      <c r="B121" t="s">
+        <v>329</v>
+      </c>
+      <c r="C121" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="122" spans="2:6">
+      <c r="B122" t="s">
+        <v>330</v>
+      </c>
+      <c r="C122" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="123" spans="2:6">
+      <c r="B123" t="s">
+        <v>331</v>
+      </c>
+      <c r="C123" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="124" spans="2:6">
+      <c r="B124" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="125" spans="2:6">
+      <c r="B125" t="s">
+        <v>333</v>
+      </c>
+      <c r="C125" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="126" spans="2:6">
+      <c r="B126" t="s">
+        <v>334</v>
+      </c>
+      <c r="C126" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="127" spans="2:6">
+      <c r="B127" t="s">
+        <v>347</v>
+      </c>
+      <c r="C127" t="s">
+        <v>335</v>
+      </c>
+      <c r="E127" t="s">
+        <v>458</v>
+      </c>
+      <c r="F127" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="2:6">
+      <c r="B128" t="s">
+        <v>348</v>
+      </c>
+      <c r="C128" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" t="s">
+        <v>349</v>
+      </c>
+      <c r="C129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" t="s">
+        <v>350</v>
+      </c>
+      <c r="C130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" t="s">
+        <v>352</v>
+      </c>
+      <c r="C132" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" t="s">
+        <v>353</v>
+      </c>
+      <c r="C133" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" t="s">
+        <v>354</v>
+      </c>
+      <c r="C134" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" t="s">
+        <v>355</v>
+      </c>
+      <c r="C135" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" t="s">
+        <v>357</v>
+      </c>
+      <c r="C137" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" t="s">
+        <v>306</v>
+      </c>
+      <c r="C139" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" t="s">
+        <v>377</v>
+      </c>
+      <c r="C140" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" t="s">
+        <v>378</v>
+      </c>
+      <c r="C141" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" t="s">
+        <v>379</v>
+      </c>
+      <c r="C142" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" t="s">
+        <v>380</v>
+      </c>
+      <c r="C143" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" t="s">
+        <v>381</v>
+      </c>
+      <c r="C144" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" t="s">
+        <v>382</v>
+      </c>
+      <c r="C145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" t="s">
+        <v>383</v>
+      </c>
+      <c r="C146" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3">
+      <c r="B148" t="s">
+        <v>385</v>
+      </c>
+      <c r="C148" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3">
+      <c r="B149" t="s">
+        <v>386</v>
+      </c>
+      <c r="C149" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3">
+      <c r="B150" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3">
+      <c r="B151" t="s">
+        <v>388</v>
+      </c>
+      <c r="C151" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3">
+      <c r="B152" t="s">
+        <v>389</v>
+      </c>
+      <c r="C152" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3">
+      <c r="B153" t="s">
+        <v>390</v>
+      </c>
+      <c r="C153" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3">
+      <c r="B154" t="s">
+        <v>391</v>
+      </c>
+      <c r="C154" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3">
+      <c r="B155" t="s">
+        <v>392</v>
+      </c>
+      <c r="C155" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3">
+      <c r="B156" t="s">
+        <v>314</v>
+      </c>
+      <c r="C156" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3">
+      <c r="B157" t="s">
+        <v>416</v>
+      </c>
+      <c r="C157" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3">
+      <c r="B158" t="s">
+        <v>417</v>
+      </c>
+      <c r="C158" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3">
+      <c r="B159" t="s">
+        <v>418</v>
+      </c>
+      <c r="C159" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3">
+      <c r="B160" t="s">
+        <v>419</v>
+      </c>
+      <c r="C160" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3">
+      <c r="B161" t="s">
+        <v>420</v>
+      </c>
+      <c r="C161" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3">
+      <c r="B162" t="s">
+        <v>358</v>
+      </c>
+      <c r="C162" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3">
+      <c r="B163" t="s">
+        <v>421</v>
+      </c>
+      <c r="C163" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3">
+      <c r="B164" t="s">
+        <v>422</v>
+      </c>
+      <c r="C164" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3">
+      <c r="B165" t="s">
+        <v>423</v>
+      </c>
+      <c r="C165" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3">
+      <c r="B166" t="s">
+        <v>424</v>
+      </c>
+      <c r="C166" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3">
+      <c r="B167" t="s">
+        <v>425</v>
+      </c>
+      <c r="C167" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3">
+      <c r="B168" t="s">
+        <v>426</v>
+      </c>
+      <c r="C168" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3">
+      <c r="B169" t="s">
+        <v>427</v>
+      </c>
+      <c r="C169" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3">
+      <c r="B170" t="s">
+        <v>428</v>
+      </c>
+      <c r="C170" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3">
+      <c r="B171" t="s">
+        <v>429</v>
+      </c>
+      <c r="C171" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3">
+      <c r="B172" t="s">
+        <v>430</v>
+      </c>
+      <c r="C172" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3">
+      <c r="B173" t="s">
+        <v>431</v>
+      </c>
+      <c r="C173" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3">
+      <c r="B174" t="s">
+        <v>432</v>
+      </c>
+      <c r="C174" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3">
+      <c r="B175" t="s">
+        <v>433</v>
+      </c>
+      <c r="C175" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3">
+      <c r="B176" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="177" spans="2:6">
+      <c r="B177" t="s">
+        <v>434</v>
+      </c>
+      <c r="C177" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="178" spans="2:6">
+      <c r="B178" t="s">
+        <v>435</v>
+      </c>
+      <c r="C178" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="179" spans="2:6">
+      <c r="B179" t="s">
+        <v>436</v>
+      </c>
+      <c r="C179" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="180" spans="2:6">
+      <c r="B180" t="s">
+        <v>437</v>
+      </c>
+      <c r="C180" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="181" spans="2:6">
+      <c r="B181" t="s">
+        <v>438</v>
+      </c>
+      <c r="C181" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="182" spans="2:6">
+      <c r="B182" t="s">
+        <v>439</v>
+      </c>
+      <c r="C182" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="183" spans="2:6">
+      <c r="B183" t="s">
+        <v>440</v>
+      </c>
+      <c r="C183" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="184" spans="2:6">
+      <c r="B184" t="s">
+        <v>441</v>
+      </c>
+      <c r="C184" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="185" spans="2:6">
+      <c r="B185" t="s">
+        <v>442</v>
+      </c>
+      <c r="C185" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="186" spans="2:6">
+      <c r="B186" t="s">
+        <v>443</v>
+      </c>
+      <c r="C186" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="187" spans="2:6">
+      <c r="B187" t="s">
+        <v>444</v>
+      </c>
+      <c r="C187" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="188" spans="2:6">
+      <c r="B188" t="s">
+        <v>132</v>
+      </c>
+      <c r="C188" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="189" spans="2:6">
+      <c r="B189" t="s">
+        <v>445</v>
+      </c>
+      <c r="C189" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="190" spans="2:6">
+      <c r="B190" t="s">
+        <v>446</v>
+      </c>
+      <c r="C190" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="191" spans="2:6">
+      <c r="B191" t="s">
+        <v>478</v>
+      </c>
+      <c r="C191" t="s">
+        <v>459</v>
+      </c>
+      <c r="F191" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="192" spans="2:6">
+      <c r="B192" t="s">
+        <v>479</v>
+      </c>
+      <c r="C192" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" t="s">
+        <v>480</v>
+      </c>
+      <c r="C193" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" t="s">
+        <v>481</v>
+      </c>
+      <c r="C194" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" t="s">
+        <v>482</v>
+      </c>
+      <c r="C195" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" t="s">
+        <v>483</v>
+      </c>
+      <c r="C196" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" t="s">
+        <v>484</v>
+      </c>
+      <c r="C197" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" t="s">
+        <v>485</v>
+      </c>
+      <c r="C198" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" t="s">
+        <v>486</v>
+      </c>
+      <c r="C199" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" t="s">
+        <v>487</v>
+      </c>
+      <c r="C200" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" t="s">
+        <v>488</v>
+      </c>
+      <c r="C201" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" t="s">
+        <v>489</v>
+      </c>
+      <c r="C202" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" t="s">
+        <v>490</v>
+      </c>
+      <c r="C203" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" t="s">
+        <v>491</v>
+      </c>
+      <c r="C204" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" t="s">
+        <v>492</v>
+      </c>
+      <c r="C205" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" t="s">
+        <v>493</v>
+      </c>
+      <c r="C206" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3">
+      <c r="B207" t="s">
+        <v>494</v>
+      </c>
+      <c r="C207" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3">
+      <c r="B208" t="s">
+        <v>495</v>
+      </c>
+      <c r="C208" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
+      <c r="B209" t="s">
+        <v>514</v>
+      </c>
+      <c r="C209" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3">
+      <c r="B210" t="s">
+        <v>515</v>
+      </c>
+      <c r="C210" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3">
+      <c r="B211" t="s">
+        <v>516</v>
+      </c>
+      <c r="C211" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3">
+      <c r="B212" t="s">
+        <v>517</v>
+      </c>
+      <c r="C212" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3">
+      <c r="B213" t="s">
+        <v>518</v>
+      </c>
+      <c r="C213" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3">
+      <c r="B214" t="s">
+        <v>519</v>
+      </c>
+      <c r="C214" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" t="s">
+        <v>520</v>
+      </c>
+      <c r="C215" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3">
+      <c r="B216" t="s">
+        <v>521</v>
+      </c>
+      <c r="C216" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3">
+      <c r="B217" t="s">
+        <v>522</v>
+      </c>
+      <c r="C217" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3">
+      <c r="B218" t="s">
+        <v>523</v>
+      </c>
+      <c r="C218" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3">
+      <c r="B219" t="s">
+        <v>524</v>
+      </c>
+      <c r="C219" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3">
+      <c r="B220" t="s">
+        <v>525</v>
+      </c>
+      <c r="C220" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3">
+      <c r="B221" t="s">
+        <v>526</v>
+      </c>
+      <c r="C221" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3">
+      <c r="B222" t="s">
+        <v>527</v>
+      </c>
+      <c r="C222" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3">
+      <c r="B223" t="s">
+        <v>528</v>
+      </c>
+      <c r="C223" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3">
+      <c r="B224" t="s">
+        <v>488</v>
+      </c>
+      <c r="C224" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3">
+      <c r="B225" t="s">
+        <v>529</v>
+      </c>
+      <c r="C225" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3">
+      <c r="B226" t="s">
+        <v>530</v>
+      </c>
+      <c r="C226" t="s">
+        <v>513</v>
       </c>
     </row>
   </sheetData>

--- a/datasets/moves.xlsx
+++ b/datasets/moves.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hongwei.lai/Documents/Personal/mini-app/nutri/datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301B7E96-DD86-A04E-A69F-FD28B80883D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{838C5466-0BE9-7B47-B1FC-6480576D273B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1611" uniqueCount="1333">
   <si>
     <t>key</t>
   </si>
@@ -1730,12 +1730,2428 @@
   <si>
     <t>平板支撑抬腿</t>
   </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Oblique-Floor-Crunches.2022-07-07-15_53_40.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Mountain-climber.2022-07-07-15_55_28.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lying-Scissor-Kick.2022-07-07-15_56_42.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lying-leg-and-hip-raise.2022-07-07-15_55_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Seated-Twist.2022-07-07-15_58_36.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Lying-Crunch.2022-07-07-15_57_37.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Landmine-Twist.2022-07-07-16_00_08.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kettlebell-Windmill.2022-07-07-16_03_34.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Incline-Leg-Hip-Raise.2022-07-07-12_27_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/High-Knee-Squat.2022-07-07-12_30_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Heel-Touch.2022-07-07-12_29_32.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Hanging-Windshield-Wiper.2022-07-07-12_31_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Half-Wipers.2022-07-07-12_31_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/frog-crunch.2022-07-07-12_34_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Exercise-Ball-Frog-Crunch.2022-07-07-12_35_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-V-up.2022-07-07-12_36_22.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Side-Bend.2022-07-07-12_36_54.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Decline-Sit-up.2022-07-07-12_37_42.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bow-Yoga-Pose.2022-07-07-12_15_14.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/abdominal-stretch.2022-07-07-16_25_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Double-Leg-Stretch.2022-07-07-12_37_18.gif</t>
+  </si>
+  <si>
+    <t>仰卧侧卷腹</t>
+  </si>
+  <si>
+    <t>登山者</t>
+  </si>
+  <si>
+    <t>仰卧交叉抬腿</t>
+  </si>
+  <si>
+    <t>绳索反向卷腹</t>
+  </si>
+  <si>
+    <t>坐式转体</t>
+  </si>
+  <si>
+    <t>地雷杆架转体</t>
+  </si>
+  <si>
+    <t>壶铃风车</t>
+  </si>
+  <si>
+    <t>下斜反向卷腹</t>
+  </si>
+  <si>
+    <t>下蹲提膝转体</t>
+  </si>
+  <si>
+    <t>仰卧交替摸踝</t>
+  </si>
+  <si>
+    <t>单杠悬垂转体</t>
+  </si>
+  <si>
+    <t>仰卧转体</t>
+  </si>
+  <si>
+    <t>青蛙卷腹</t>
+  </si>
+  <si>
+    <t>负重青蛙卷腹</t>
+  </si>
+  <si>
+    <t>哑铃两头起</t>
+  </si>
+  <si>
+    <t>哑铃体侧屈</t>
+  </si>
+  <si>
+    <t>下斜仰卧起做</t>
+  </si>
+  <si>
+    <t>拉伸1</t>
+  </si>
+  <si>
+    <t>拉伸2</t>
+  </si>
+  <si>
+    <t>拉伸3</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Calf-Raise.2022-07-09-11_04_35.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Resistance-Band-Foot-External-Rotation.2022-07-09-11_03_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Seated-Calf-Raise.2022-07-09-11_02_31.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Donkey-Calf-Raise.2022-07-09-11_06_59.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Leg-Press-Calf-Raise.2022-07-09-11_02_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Hack-Squat-Calf-Raise.2022-07-09-11_07_59.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Hack-Machine-One-Leg-Calf-Raise.2022-07-09-11_07_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Calf-Raise.2022-07-09-11_08_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Donkey-Calf-Raise.2022-07-09-11_09_19.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Calf-Raise-with-Resistance-Band.2022-07-09-11_10_15.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bench-Press-Machine-Standing-Calf-Raise.2022-07-09-11_10_41.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Seated-Calf-Raise.2022-07-09-11_11_09.gif</t>
+  </si>
+  <si>
+    <t>立姿小腿上提</t>
+  </si>
+  <si>
+    <t>阻力带脚外转</t>
+  </si>
+  <si>
+    <t>坐姿提踵</t>
+  </si>
+  <si>
+    <t>驴式提踵</t>
+  </si>
+  <si>
+    <t>小腿倒蹬</t>
+  </si>
+  <si>
+    <t>哈克提踵</t>
+  </si>
+  <si>
+    <t>哈克单腿提踵</t>
+  </si>
+  <si>
+    <t>哑铃提踵</t>
+  </si>
+  <si>
+    <t>绳索提踵</t>
+  </si>
+  <si>
+    <t>提踵</t>
+  </si>
+  <si>
+    <t>坐姿杠铃提踵</t>
+  </si>
+  <si>
+    <t>小腿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Wall-Calf-Stretch.2022-07-09-11_05_05.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Hamstring-Stretch.2022-07-09-11_04_02.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Cross-Leg-Hamstring-Stretch.2022-07-09-11_06_24.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Single-Heel-Drop-Calf-Stretch.2022-07-09-11_05_28.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lunging-Straight-Leg-Calf-Stretch.2022-07-09-11_05_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Calves-Stretch-Static-Position.2022-07-09-11_09_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Foam-Roller-Calves.2022-07-09-11_08_54.gif</t>
+  </si>
+  <si>
+    <t>小腿拉伸1</t>
+  </si>
+  <si>
+    <t>小腿拉伸2</t>
+  </si>
+  <si>
+    <t>小腿拉伸3</t>
+  </si>
+  <si>
+    <t>小腿拉伸4</t>
+  </si>
+  <si>
+    <t>小腿拉伸5</t>
+  </si>
+  <si>
+    <t>小腿拉伸6</t>
+  </si>
+  <si>
+    <t>泡沫轴放松</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Glute-Bridge.2022-07-09-11_41_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Hip-Thrust.2022-07-09-11_40_48.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/bodyweight-hip-thrust.2022-07-09-11_35_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Smith-Machine-Reverse-Kickback.2022-07-09-16_24_10.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Single-Leg-Bridge.2022-07-09-16_24_34.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Hyperextensions.2022-07-09-16_25_42.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Standing-Rear-Kick.2022-07-09-16_27_48.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Pull-through-Hips.2022-07-09-16_26_08.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Side-Hip-Abduction.2022-07-09-16_27_06.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kettlebell-Swings.2022-07-09-16_28_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kettlebell-Single-Leg-Deadlift.2022-07-09-16_28_51.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Hip-Thrust-on-The-Leg-Extension-Machine.2022-07-09-16_29_27.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Hip-Extension-On-Bench.2022-07-09-16_33_37.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/HIP-ADDUCTION-MACHINE.2022-07-09-16_31_06.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Glute-Bridge-on-Bench.2022-07-09-16_33_11.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Romanian-Deadlift.2022-07-09-16_32_04.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Rear-Lunge.2022-07-09-16_32_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Lunge.2022-07-09-16_30_24.gif</t>
+  </si>
+  <si>
+    <t>臀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠铃臀桥</t>
+  </si>
+  <si>
+    <t>杠铃臀推</t>
+  </si>
+  <si>
+    <t>自重臀推</t>
+  </si>
+  <si>
+    <t>史密斯倒蹬</t>
+  </si>
+  <si>
+    <t>单腿臀桥</t>
+  </si>
+  <si>
+    <t>反向山羊挺身</t>
+  </si>
+  <si>
+    <t>器械后抬腿</t>
+  </si>
+  <si>
+    <t>绳索髋屈伸</t>
+  </si>
+  <si>
+    <t>器械髋外展</t>
+  </si>
+  <si>
+    <t>腿屈伸器臀推</t>
+  </si>
+  <si>
+    <t>平凳单腿臀屈伸</t>
+  </si>
+  <si>
+    <t>器械臀内收</t>
+  </si>
+  <si>
+    <t>平凳臀桥</t>
+  </si>
+  <si>
+    <t>哑铃罗马尼亚硬拉</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Glute-Bridge.2022-07-09-16_30_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Donkey-Kick-on-Smith-Machine.2022-07-09-11_32_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Donkey-Kick-on-Leg-Extension-Machine.2022-07-09-11_34_22.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cossack-Squat.2022-07-09-11_34_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Squat.2022-07-09-11_33_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Kneeling-Pull-Through.2022-07-09-11_33_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/burpees.2022-07-09-11_32_20.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/BODYWEIGHT-SUMO-SQUAT.2022-07-09-11_37_42.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bodyweight-Single-Leg-Deadlift.2022-07-09-11_37_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bench-Glute-Flutter-Kicks.2022-07-09-11_36_35.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-sumo-squat.2022-07-09-11_39_14.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/BARBELL-SQUAT.2022-07-09-11_35_28.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Romanian-Deadlift.2022-07-09-11_40_17.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Deadlift.2022-07-09-11_39_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Banded-Step-up.2022-07-09-11_42_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Banded-Standing-Glute-Kickback.2022-07-09-11_41_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Banded-Glute-Kickbacks.2022-07-09-11_42_42.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Band-Side-Lying-Clam.2022-07-09-16_21_45.gif</t>
+  </si>
+  <si>
+    <t>哑铃臀桥</t>
+  </si>
+  <si>
+    <t>哑铃单腿后蹬</t>
+  </si>
+  <si>
+    <t>腿屈伸器后蹬</t>
+  </si>
+  <si>
+    <t>跪姿绳索髋屈伸</t>
+  </si>
+  <si>
+    <t>自重相扑深蹲</t>
+  </si>
+  <si>
+    <t>自重单腿硬拉</t>
+  </si>
+  <si>
+    <t>俯卧交替抬腿</t>
+  </si>
+  <si>
+    <t>杠铃相扑深蹲</t>
+  </si>
+  <si>
+    <t>杠铃硬拉</t>
+  </si>
+  <si>
+    <t>弹力带上阶</t>
+  </si>
+  <si>
+    <t>弹力带后抬腿</t>
+  </si>
+  <si>
+    <t>弹力带后蹬</t>
+  </si>
+  <si>
+    <t>弹力带侧卧腿外展</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Cross-Leg-Hamstring-Stretch.2022-07-09-16_24_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Kneeling-Hip-Flexor-Stretch.2022-07-09-16_27_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/INNER-THIGH-SIDE-STRETCH.2022-07-09-16_29_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Foam-Roller-Glutes.2022-07-09-16_31_40.gif</t>
+  </si>
+  <si>
+    <t>臀部拉伸1</t>
+  </si>
+  <si>
+    <t>臀部拉伸2</t>
+  </si>
+  <si>
+    <t>臀部拉伸3</t>
+  </si>
+  <si>
+    <t>臀部拉伸4</t>
+  </si>
+  <si>
+    <t>臀部拉伸5</t>
+  </si>
+  <si>
+    <t>臀部泡沫轴放松</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Smith-Machine-Behind-Neck-Press.2022-07-05-21_25_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Shoulder-Press.2022-07-05-20_23_41.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Arnold-Press.2022-07-05-20_20_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/weighted-round-arm.2022-07-05-21_23_08.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Weight-Plate-Front-Raise-1.2022-07-05-21_20_43.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Two-Arm-Cable-Lateral-Raise.2022-07-05-21_20_15.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Two-Arm-Cable-Front-Raise.2022-07-05-21_22_00.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Barbell-Close-Grip-Military-Press.2022-07-05-21_23_51.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Rear-Lateral-Dumbbell-Raise.2022-07-05-21_30_39.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Behind-the-Neck-Press.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Dumbbell-Lateral-Raise.2022-07-05-21_40_38.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/scott-press.2022-07-05-21_36_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Rear-Delt-Machine-Flys.2022-07-05-21_41_48.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/push-press-1.2022-07-05-21_46_09.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Shoulder-Press.2022-07-05-21_38_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Leaning-Single-Arm-Dumbbell-Lateral-Raise.2022-07-05-21_42_52.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Leaning-Cable-Lateral-Raise.2022-07-05-21_50_29.gif</t>
+  </si>
+  <si>
+    <t>肩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>史密斯机推肩</t>
+  </si>
+  <si>
+    <t>坐姿杠铃推肩</t>
+  </si>
+  <si>
+    <t>阿诺德哑铃推举</t>
+  </si>
+  <si>
+    <t>杠铃片旋转前平举</t>
+  </si>
+  <si>
+    <t>杠铃片前平举</t>
+  </si>
+  <si>
+    <t>绳索交叉侧平举</t>
+  </si>
+  <si>
+    <t>绳索前平举</t>
+  </si>
+  <si>
+    <t>杠铃颈前推举</t>
+  </si>
+  <si>
+    <t>颈后史密斯推肩</t>
+  </si>
+  <si>
+    <t>坐姿哑铃飞鸟</t>
+  </si>
+  <si>
+    <t>坐姿颈后杠铃推举</t>
+  </si>
+  <si>
+    <t>坐姿哑铃侧平举</t>
+  </si>
+  <si>
+    <t>斯科特哑铃推举</t>
+  </si>
+  <si>
+    <t>器械后飞鸟</t>
+  </si>
+  <si>
+    <t>推举</t>
+  </si>
+  <si>
+    <t>推肩器推肩</t>
+  </si>
+  <si>
+    <t>单臂哑铃侧平举</t>
+  </si>
+  <si>
+    <t>单臂绳索侧平举</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lateral-Raise-Machine.2022-07-05-21_42_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Half-Kneeling-High-Cable-Row-Rope.2022-07-05-21_54_40.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Face-Pull.2022-07-05-21_43_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Upright-Row.2022-07-05-21_49_11.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Shoulder-Press.2022-07-05-21_44_32.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Lying-One-Arm-Rear-Lateral-Raise.2022-07-05-19_44_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Lateral-Raise.2022-07-05-19_58_24.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Front-Raise.2022-07-05-19_53_22.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Chest-Supported-Lateral-Raises.2022-07-05-19_42_06.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Bent-Arm-Laterl-Raise.2022-07-05-19_51_43.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Upright-Row.2022-07-05-19_37_18.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/cable-rear-delt-fly.2022-07-05-20_10_12.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Lateral-Raise.2022-07-05-20_06_06.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Front-Raise.2022-07-05-19_39_12.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/c605ecc96aa1ca468c6c1c664b83cc1e.2022-07-05-19_49_19.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bodyweight-Military-Press.2022-07-05-20_01_15.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/bent-over-reverse-cable-fly.2022-07-05-20_00_29.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bent-Over-Lateral-Raise.2022-07-05-20_16_04.gif</t>
+  </si>
+  <si>
+    <t>器械侧平举</t>
+  </si>
+  <si>
+    <t>跪姿绳索面拉</t>
+  </si>
+  <si>
+    <t>站姿面拉</t>
+  </si>
+  <si>
+    <t>哑铃直立划船</t>
+  </si>
+  <si>
+    <t>哑铃推举</t>
+  </si>
+  <si>
+    <t>俯卧单臂侧平举</t>
+  </si>
+  <si>
+    <t>哑铃侧平举</t>
+  </si>
+  <si>
+    <t>哑铃前平举</t>
+  </si>
+  <si>
+    <t>上斜俯卧哑铃侧平举</t>
+  </si>
+  <si>
+    <t>绳索直立划船</t>
+  </si>
+  <si>
+    <t>绳索反向飞鸟</t>
+  </si>
+  <si>
+    <t>绳索侧平举</t>
+  </si>
+  <si>
+    <t>单臂哑铃直立划船</t>
+  </si>
+  <si>
+    <t>自重推举</t>
+  </si>
+  <si>
+    <t>俯身交叉绳索飞鸟</t>
+  </si>
+  <si>
+    <t>俯身哑铃侧平举</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Upright-Row.2022-07-05-20_07_47.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Alternating-Dumbbell-Front-Raise.2022-07-05-20_22_35.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/59e0f783593222d74640be021e2ab7d4.2022-07-05-20_21_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/0bac504381ee5fd4d2ad6c6653a3dbdb.2022-07-05-20_24_09.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Stretch-With-Towel.2022-07-07-00_02_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Reverse-Shoulder-Stretch.2022-07-06-23_18_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-one-arm-chest-stretch.2022-07-06-23_17_16.gif</t>
+  </si>
+  <si>
+    <t>曲杆直立划船</t>
+  </si>
+  <si>
+    <t>哑铃交替前平举</t>
+  </si>
+  <si>
+    <t>弹力带单臂推举</t>
+  </si>
+  <si>
+    <t>肩部拉伸1</t>
+  </si>
+  <si>
+    <t>肩部拉伸2</t>
+  </si>
+  <si>
+    <t>肩部拉伸3</t>
+  </si>
+  <si>
+    <t>肩部拉伸4</t>
+  </si>
+  <si>
+    <t>肩部拉伸5</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled.2022-07-06-23_51_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-9.2022-07-06-23_48_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-8.2022-07-06-23_48_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-7.2022-07-06-23_49_08.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-6.2022-07-06-23_49_33.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-5.2022-07-06-23_49_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-4.2022-07-06-23_50_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-3.2022-07-06-23_50_36.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-2.2022-07-06-23_50_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Triceps-Extension-with-Resistance-Bands.2022-07-06-23_58_07.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Triceps-Extension-Machine.2022-07-06-23_59_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Triceps-Dips.2022-07-07-00_01_05.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Triceps-dips-on-floors.2022-07-07-00_00_45.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Triceps-Dips-on-Floor.2022-07-07-00_01_32.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Triceps-Dip-Machine.2022-07-07-00_01_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Triceps-Extension.2022-07-07-00_02_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Standing-Barbell-Triceps-Extension.2022-07-07-00_03_12.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Single-Dumbbell-Close-grip-Press.2022-07-06-23_57_43.gif</t>
+  </si>
+  <si>
+    <t>绳索臂屈伸</t>
+  </si>
+  <si>
+    <t>单臂站姿臂屈伸</t>
+  </si>
+  <si>
+    <t>仰卧单臂哑铃臂屈伸</t>
+  </si>
+  <si>
+    <t>靠墙俯卧撑</t>
+  </si>
+  <si>
+    <t>器械臂屈伸</t>
+  </si>
+  <si>
+    <t>仰卧哑铃肱三头肌臂屈伸</t>
+  </si>
+  <si>
+    <t>俯卧绳索臂屈伸</t>
+  </si>
+  <si>
+    <t>跪姿绳索过顶臂屈伸</t>
+  </si>
+  <si>
+    <t>弹力带下压</t>
+  </si>
+  <si>
+    <t>双杠臂屈伸</t>
+  </si>
+  <si>
+    <t>地面臂屈伸</t>
+  </si>
+  <si>
+    <t>平凳臂屈伸</t>
+  </si>
+  <si>
+    <t>弹力带过顶臂屈伸</t>
+  </si>
+  <si>
+    <t>站姿头后杠铃臂屈伸</t>
+  </si>
+  <si>
+    <t>肱三头肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-One-Arm-Dumbbell-Triceps-Extension.2022-07-06-23_56_40.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-EZ-Bar-Overhead-Triceps-Extension.2022-07-06-23_43_47.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Dumbbell-Triceps-Extension.2022-07-06-23_42_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Rope-Pushdown.2022-07-06-23_44_39.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Push-up.2022-07-06-23_43_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Grip-Pushdown.2022-07-06-23_44_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Rear-Drive.2022-07-06-23_45_32.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Pushdown.2022-07-06-23_45_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/parallel-bar-dip.2022-07-06-23_46_27.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/One-Arm-Pronated-Dumbbell-Triceps-Extension-.2022-07-06-23_46_53.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Seated-Front-and-Back-Tate-Press.2022-07-06-23_27_35.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Kickback.2022-07-06-23_35_39.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Incline-Two-Arm-Extension.2022-07-06-23_33_34.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Close-Grip-Dumbbell-Press.2022-07-06-23_28_05.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Close-Grip-Bench-Press.2022-07-06-23_35_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/CHAIR-DIPS.2022-07-06-23_30_03.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Tricep-Kickback.2022-07-06-23_33_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Side-Triceps-Extension.2022-07-06-23_32_36.gif</t>
+  </si>
+  <si>
+    <t>坐姿单臂哑铃臂屈伸</t>
+  </si>
+  <si>
+    <t>坐姿杠铃颈后臂屈伸</t>
+  </si>
+  <si>
+    <t>坐姿肱三头肌推举</t>
+  </si>
+  <si>
+    <t>站姿绳索下压</t>
+  </si>
+  <si>
+    <t>反握肱三头肌下压</t>
+  </si>
+  <si>
+    <t>站姿水平臂屈伸</t>
+  </si>
+  <si>
+    <t>肱三头肌下压</t>
+  </si>
+  <si>
+    <t>单臂正握哑铃肱三头肌屈伸</t>
+  </si>
+  <si>
+    <t>坐姿哑铃颈前颈后交替臂屈伸</t>
+  </si>
+  <si>
+    <t>哑铃俯身臂屈伸</t>
+  </si>
+  <si>
+    <t>哑铃上斜臂屈伸</t>
+  </si>
+  <si>
+    <t>窄距哑铃卧推</t>
+  </si>
+  <si>
+    <t>杠铃窄距卧推</t>
+  </si>
+  <si>
+    <t>板凳臂屈伸</t>
+  </si>
+  <si>
+    <t>绳索单臂屈伸</t>
+  </si>
+  <si>
+    <t>站姿单臂绳索臂屈伸</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Rope-Overhead-Triceps-Extension.2022-07-06-23_34_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-One-Arm-Overhead-Triceps-Extension.2022-07-06-23_36_36.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Lying-Triceps-Extensions.2022-07-06-23_34_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Incline-Triceps-Extension.2022-07-06-23_37_31.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Crossover-Triceps-Extension.2022-07-06-23_33_09.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Concentration-Extension-on-knee.2022-07-06-23_38_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bent-Over-Triceps-Kickback.2022-07-06-23_37_55.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bench-Dips.2022-07-06-23_38_48.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Triceps-Extension.2022-07-06-23_39_13.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Triceps-Stretch.2022-07-06-23_57_20.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Shoulder-Stretch-Behind-Back.2022-07-06-23_56_56.gif</t>
+  </si>
+  <si>
+    <t>绳索过顶肱三头肌屈伸</t>
+  </si>
+  <si>
+    <t>单臂绳索过顶臂屈伸</t>
+  </si>
+  <si>
+    <t>仰卧绳索臂屈伸</t>
+  </si>
+  <si>
+    <t>上斜绳索臂屈伸</t>
+  </si>
+  <si>
+    <t>站姿绳索交叉臂屈伸</t>
+  </si>
+  <si>
+    <t>单腿跪姿绳索臂屈伸</t>
+  </si>
+  <si>
+    <t>俯身哑铃臂屈伸</t>
+  </si>
+  <si>
+    <t>平板登臂屈伸</t>
+  </si>
+  <si>
+    <t>仰卧杠铃臂屈伸</t>
+  </si>
+  <si>
+    <t>肱三头肌拉伸1</t>
+  </si>
+  <si>
+    <t>肱三头肌拉伸2</t>
+  </si>
+  <si>
+    <t>肱三头肌拉伸3</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/zottman-curl.2022-07-06-23_15_05.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Z-Bar-Preacher-Curl.2022-07-06-23_15_59.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Incline-Dumbbell-Curl.2022-07-06-23_15_34.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Hammer-Curl.2022-07-06-23_17_40.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-close-grip-concentration-curl.2022-07-06-23_19_25.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Seated-Bicep-Curl-With-Resistance-Band.2022-07-06-23_18_10.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/rope-bicep-curls.2022-07-06-23_20_17.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Grip-EZ-Bar-Curl.2022-07-06-23_19_54.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Prone-Incline-Biceps-Curl.2022-07-06-23_18_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/overhead-cable-curl.2022-07-06-23_21_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/One-Arm-Prone-Dumbbell-Curl.2022-07-06-23_21_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/One-Arm-Cable-Curl.2022-07-06-23_22_23.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lying-High-Bench-Barbell-Curl.2022-07-06-23_23_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/lying-cable-curl.2022-07-06-23_22_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lever-Preacher-Curl.2022-07-06-22_59_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/High-Cable-Single-Arm-Bicep-Curl.2022-07-06-23_00_12.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Hammer-Curl.2022-07-06-23_01_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Scott-Hammer-Curl.2022-07-06-23_01_02.gif</t>
+  </si>
+  <si>
+    <t>佐特曼弯举</t>
+  </si>
+  <si>
+    <t>反握杠铃牧师凳弯举</t>
+  </si>
+  <si>
+    <t>交替上斜哑铃弯举</t>
+  </si>
+  <si>
+    <t>坐姿锤式弯举</t>
+  </si>
+  <si>
+    <t>坐姿杠铃弯举</t>
+  </si>
+  <si>
+    <t>坐姿弹力带弯举</t>
+  </si>
+  <si>
+    <t>站姿绳索弯举</t>
+  </si>
+  <si>
+    <t>站姿曲杆弯举</t>
+  </si>
+  <si>
+    <t>上斜俯卧杠铃弯举</t>
+  </si>
+  <si>
+    <t>过顶绳索弯举</t>
+  </si>
+  <si>
+    <t>上斜俯卧单臂哑铃弯举</t>
+  </si>
+  <si>
+    <t>单臂绳索弯举</t>
+  </si>
+  <si>
+    <t>俯卧杠铃弯举</t>
+  </si>
+  <si>
+    <t>仰卧绳索弯举</t>
+  </si>
+  <si>
+    <t>器械牧师凳弯举</t>
+  </si>
+  <si>
+    <t>站姿锤式弯举</t>
+  </si>
+  <si>
+    <t>牧师凳锤式弯举</t>
+  </si>
+  <si>
+    <t>肱二头肌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/dumbbell-scot-curl.2022-07-06-23_02_26.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/dumbbell-reverse-curl.2022-07-06-23_04_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Preacher-Curl.2022-07-06-23_03_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-High-Curl.2022-07-06-23_05_56.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Curl.2022-07-06-23_02_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Double-Arm-Dumbbell-Curl.2022-07-06-23_07_24.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Concentration-Curl.2022-07-06-23_03_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Two-Arm-Curl-on-Incline-Bench.2022-07-06-23_06_24.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/cable-preacher-curls.2022-07-06-23_05_30.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/cable-curl.2022-07-06-23_08_21.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-Concentration-Curl.2022-07-06-23_07_47.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Brachialis-Pull-up.2022-07-06-23_09_12.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Biceps-Leg-Concentration-Curl.2022-07-06-23_08_47.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Bicep-Curl-Machine.2022-07-06-23_09_34.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Arm-Blaster-Hammer-Curl.2022-07-06-23_10_31.gif</t>
+  </si>
+  <si>
+    <t>斜凳单臂哑铃弯举</t>
+  </si>
+  <si>
+    <t>站姿反握哑铃弯举</t>
+  </si>
+  <si>
+    <t>站姿牧师凳哑铃弯举</t>
+  </si>
+  <si>
+    <t>高位哑铃弯举</t>
+  </si>
+  <si>
+    <t>哑铃弯举</t>
+  </si>
+  <si>
+    <t>双臂哑铃弯举</t>
+  </si>
+  <si>
+    <t>二头肌集中弯举</t>
+  </si>
+  <si>
+    <t>上斜绳索弯举</t>
+  </si>
+  <si>
+    <t>单臂绳索牧师凳弯举</t>
+  </si>
+  <si>
+    <t>绳索二头肌集中弯举</t>
+  </si>
+  <si>
+    <t>二头肌抬腿集中弯举</t>
+  </si>
+  <si>
+    <t>二头弯举器</t>
+  </si>
+  <si>
+    <t>二头肌训练板锤式弯举</t>
+  </si>
+  <si>
+    <t>肱二头肌拉伸1</t>
+  </si>
+  <si>
+    <t>肱二头肌拉伸2</t>
+  </si>
+  <si>
+    <t>肱二头肌拉伸3</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/wrist-roller.2022-07-07-11_17_50.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Weighted-Wrist-Curl.2022-07-07-11_20_46.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Reverse-Wrist-Curl.2022-07-07-11_23_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Hand-Gripper.2022-07-07-11_18_33.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Wrist-Curl.2022-07-07-11_22_58.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Seated-Neutral-Wrist-Curl.2022-07-07-11_22_28.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Dumbbell-Preacher-Hammer-Curl.2022-07-07-11_29_25.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Cable-One-Arm-Wrist-Curl-On-Floor.2022-07-07-11_28_31.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Behind-The-Back-Barbell-Wrist-Curl.2022-07-07-11_30_48.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/barbell-Wrist-Curl.2022-07-07-11_31_16.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Reverse-Wrist-Curl.2022-07-07-11_32_10.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Reverse-Wrist-Curl-Over-a-Bench.2022-07-07-11_31_43.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Barbell-Reverse-Curl.2022-07-07-11_32_49.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Wrist-Circles-Stretch.2022-07-07-11_19_01.gif</t>
+  </si>
+  <si>
+    <t>手腕滚轴</t>
+  </si>
+  <si>
+    <t>坐姿杠铃片手腕弯举</t>
+  </si>
+  <si>
+    <t>坐姿手腕弯举</t>
+  </si>
+  <si>
+    <t>握力器</t>
+  </si>
+  <si>
+    <t>哑铃手腕弯举</t>
+  </si>
+  <si>
+    <t>哑铃锤式手腕弯举</t>
+  </si>
+  <si>
+    <t>哑铃牧师凳锤式弯举</t>
+  </si>
+  <si>
+    <t>单臂绳索手腕下压</t>
+  </si>
+  <si>
+    <t>背面站姿反握杠铃手腕弯举</t>
+  </si>
+  <si>
+    <t>杠铃手腕弯举</t>
+  </si>
+  <si>
+    <t>反握杠铃手腕弯举</t>
+  </si>
+  <si>
+    <t>反握杠铃杆手腕弯举</t>
+  </si>
+  <si>
+    <t>杠铃弯举</t>
+  </si>
+  <si>
+    <t>前臂拉伸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-10.2022-07-05-16_52_04.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Lying-Weighted-Neck-Flexion.2022-07-05-16_28_42.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-9.2022-07-05-16_55_14.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-2.2022-07-05-17_09_57.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Weighted-Lying-Neck-Flexion.2022-07-05-16_29_36.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Weighted-Lying-Neck-Extension.2022-07-05-16_30_27.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-7.2022-07-05-16_59_59.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Untitled-5.2022-07-05-17_02_53.gif</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Side-Neck-Stretch.2022-07-05-16_45_16.gif</t>
+  </si>
+  <si>
+    <t>颈部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>俯卧负重前仰</t>
+  </si>
+  <si>
+    <t>仰卧负重后仰</t>
+  </si>
+  <si>
+    <t>俯卧抬头</t>
+  </si>
+  <si>
+    <t>坐姿颈部后仰</t>
+  </si>
+  <si>
+    <t>上斜仰卧项圈颈部后仰</t>
+  </si>
+  <si>
+    <t>上斜俯卧项圈颈部前仰</t>
+  </si>
+  <si>
+    <t>颈部扭转</t>
+  </si>
+  <si>
+    <t>坐姿项圈颈部后拉</t>
+  </si>
+  <si>
+    <t>颈部拉伸1</t>
+  </si>
+  <si>
+    <t>颈部拉伸2</t>
+  </si>
+  <si>
+    <t>颈部拉伸3</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Neck-Extension-Stretching-360x360-1.png</t>
+  </si>
+  <si>
+    <t>https://www.jianshenup.com/wp-content/uploads/2022/07/Neck-Flexion-Stretch-360x360-1.png</t>
+  </si>
+  <si>
+    <t>pull-up</t>
+  </si>
+  <si>
+    <t>seated-cable-row</t>
+  </si>
+  <si>
+    <t>barbell-bent-over-row</t>
+  </si>
+  <si>
+    <t>v-bar-lat-pulldown</t>
+  </si>
+  <si>
+    <t>t-bar-row</t>
+  </si>
+  <si>
+    <t>smith-machine-bent-over-row</t>
+  </si>
+  <si>
+    <t>seated-cable-rope-row</t>
+  </si>
+  <si>
+    <t>rope-straight-arm-pulldown</t>
+  </si>
+  <si>
+    <t>reverse-grip-pull-up</t>
+  </si>
+  <si>
+    <t>reverse-lat-pulldown</t>
+  </si>
+  <si>
+    <t>seated-row-machine</t>
+  </si>
+  <si>
+    <t>lever-t-bar-row</t>
+  </si>
+  <si>
+    <t>lat-pulldown</t>
+  </si>
+  <si>
+    <t>close-grip-lat-pulldown</t>
+  </si>
+  <si>
+    <t>straight_back-back-standing-row</t>
+  </si>
+  <si>
+    <t>single-arm-twisting-seated-cable-row</t>
+  </si>
+  <si>
+    <t>lever-cable-rear-pulldown</t>
+  </si>
+  <si>
+    <t>weighted-pull-up</t>
+  </si>
+  <si>
+    <t>table-inverted-row</t>
+  </si>
+  <si>
+    <t>ring-inverted-row</t>
+  </si>
+  <si>
+    <t>rope-climb</t>
+  </si>
+  <si>
+    <t>reverse-grip-barbell-row</t>
+  </si>
+  <si>
+    <t>plate-loaded-seated-row</t>
+  </si>
+  <si>
+    <t>one-arm-landmine-row</t>
+  </si>
+  <si>
+    <t>one-arm-chin-up</t>
+  </si>
+  <si>
+    <t>one-arm-barbell-row-</t>
+  </si>
+  <si>
+    <t>muscle-up-vertical-bar</t>
+  </si>
+  <si>
+    <t>kneeling-single-arm-high-pulley-row</t>
+  </si>
+  <si>
+    <t>kneeling-pulldown</t>
+  </si>
+  <si>
+    <t>kneeling-high-pulley-row</t>
+  </si>
+  <si>
+    <t>kettlebell-bent-over-row</t>
+  </si>
+  <si>
+    <t>inverted-row</t>
+  </si>
+  <si>
+    <t>incline-reverse-grip-dumbbell-row</t>
+  </si>
+  <si>
+    <t>incline-dumbbell-hammer-row</t>
+  </si>
+  <si>
+    <t>incline-dumbbell-row</t>
+  </si>
+  <si>
+    <t>incline-cable-row</t>
+  </si>
+  <si>
+    <t>incline-barbell-row</t>
+  </si>
+  <si>
+    <t>full-range-of-motion-lat-pulldown</t>
+  </si>
+  <si>
+    <t>dumbbell-row</t>
+  </si>
+  <si>
+    <t>double-cable-neutral-grip-lat-pulldown-on-floor</t>
+  </si>
+  <si>
+    <t>close-grip-cable-row</t>
+  </si>
+  <si>
+    <t>cable-rear-pulldown</t>
+  </si>
+  <si>
+    <t>cable-one-arm-lat-pulldown</t>
+  </si>
+  <si>
+    <t>cable-bent-over-row</t>
+  </si>
+  <si>
+    <t>barbell-romanian-deadlift</t>
+  </si>
+  <si>
+    <t>assisted-pull-up</t>
+  </si>
+  <si>
+    <t>behind-the-neck-pull-up</t>
+  </si>
+  <si>
+    <t>barbell-sumo-deadlift</t>
+  </si>
+  <si>
+    <t>stiff-leg-deadlift</t>
+  </si>
+  <si>
+    <t>hyperextension</t>
+  </si>
+  <si>
+    <t>twisting-hyperextension</t>
+  </si>
+  <si>
+    <t>flat-bench-hyperextension</t>
+  </si>
+  <si>
+    <t>weighted-back-extension</t>
+  </si>
+  <si>
+    <t>barbell-good-morning</t>
+  </si>
+  <si>
+    <t>smith-machine-good-morning</t>
+  </si>
+  <si>
+    <t>cable-pull-through</t>
+  </si>
+  <si>
+    <t>good-morning-with-resistance-band</t>
+  </si>
+  <si>
+    <t>seated-back-extension</t>
+  </si>
+  <si>
+    <t>reverse-hyperextension-machine</t>
+  </si>
+  <si>
+    <t>reverse-hyperextensions</t>
+  </si>
+  <si>
+    <t>superman-exercise</t>
+  </si>
+  <si>
+    <t>kettlebell-single-leg-deadlift</t>
+  </si>
+  <si>
+    <t>dumbbell-straight-leg-deadlift</t>
+  </si>
+  <si>
+    <t>upper-back-stretch</t>
+  </si>
+  <si>
+    <t>stretch-with-towel</t>
+  </si>
+  <si>
+    <t>standing-reach-up-back-rotation-stretch</t>
+  </si>
+  <si>
+    <t>standing-side-bend-stretch</t>
+  </si>
+  <si>
+    <t>across-chest-shoulder-stretch</t>
+  </si>
+  <si>
+    <t>roll-upper-back</t>
+  </si>
+  <si>
+    <t>roll-rhomboids</t>
+  </si>
+  <si>
+    <t>foam-roller-lat-stretch</t>
+  </si>
+  <si>
+    <t>leg-curl</t>
+  </si>
+  <si>
+    <t>trap-bar-deadlift</t>
+  </si>
+  <si>
+    <t>leg-press</t>
+  </si>
+  <si>
+    <t>sled-hack-squat</t>
+  </si>
+  <si>
+    <t>lever-side-hip-abduction</t>
+  </si>
+  <si>
+    <t>lever-side-hip-adduction</t>
+  </si>
+  <si>
+    <t>lever-horizontal-leg-press</t>
+  </si>
+  <si>
+    <t>hip-abduction-machine</t>
+  </si>
+  <si>
+    <t>hip-adduction-machine</t>
+  </si>
+  <si>
+    <t>standing-leg-raise</t>
+  </si>
+  <si>
+    <t>cable-hips-adduction</t>
+  </si>
+  <si>
+    <t>cable-squat</t>
+  </si>
+  <si>
+    <t>single-leg-press</t>
+  </si>
+  <si>
+    <t>reverse-lunge-knee</t>
+  </si>
+  <si>
+    <t>resistance-band-lateral-walk</t>
+  </si>
+  <si>
+    <t>pistol-squat</t>
+  </si>
+  <si>
+    <t>lying-dumbbell-leg-curl</t>
+  </si>
+  <si>
+    <t>lever-standing-leg-raise</t>
+  </si>
+  <si>
+    <t>lever-single-leg-curl</t>
+  </si>
+  <si>
+    <t>leg-curl-on-stability-ball</t>
+  </si>
+  <si>
+    <t>landmine-press</t>
+  </si>
+  <si>
+    <t>kettlebell-swings</t>
+  </si>
+  <si>
+    <t>kettlebell-split-snatch</t>
+  </si>
+  <si>
+    <t>kettlebell-pistol-squats</t>
+  </si>
+  <si>
+    <t>jump-squat</t>
+  </si>
+  <si>
+    <t>high-knee-squat</t>
+  </si>
+  <si>
+    <t>exercise-ball-wall-squat</t>
+  </si>
+  <si>
+    <t>dumbbell-sumo-squat</t>
+  </si>
+  <si>
+    <t>dumbbell-split-jump</t>
+  </si>
+  <si>
+    <t>dumbbell-rear-lunge</t>
+  </si>
+  <si>
+    <t>dumbbell-lunge</t>
+  </si>
+  <si>
+    <t>dumbbell-lateral-step-up</t>
+  </si>
+  <si>
+    <t>dumbbell-bulgarian-split-squat</t>
+  </si>
+  <si>
+    <t>cossack-squat</t>
+  </si>
+  <si>
+    <t>cable-front-squat</t>
+  </si>
+  <si>
+    <t>cable-forward-lunge</t>
+  </si>
+  <si>
+    <t>bodyweight-walking-lunge</t>
+  </si>
+  <si>
+    <t>bodyweight-sumo-squat</t>
+  </si>
+  <si>
+    <t>bodyweight-squat</t>
+  </si>
+  <si>
+    <t>barbell-sumo-squat</t>
+  </si>
+  <si>
+    <t>barbell-step-up</t>
+  </si>
+  <si>
+    <t>barbell-squat</t>
+  </si>
+  <si>
+    <t>barbell-lunge</t>
+  </si>
+  <si>
+    <t>barbell-lateral-lunge</t>
+  </si>
+  <si>
+    <t>barbell-deadlift</t>
+  </si>
+  <si>
+    <t>barbell-clean-and-press-</t>
+  </si>
+  <si>
+    <t>barbell-bench-front-squat</t>
+  </si>
+  <si>
+    <t>banded-walk</t>
+  </si>
+  <si>
+    <t>standing-cross-leg-hamstring-stretch</t>
+  </si>
+  <si>
+    <t>standing-wide-knees-adductor-stretch</t>
+  </si>
+  <si>
+    <t>sitting-wide-leg-adductor-stretch</t>
+  </si>
+  <si>
+    <t>seated-adductor-groin-stretch</t>
+  </si>
+  <si>
+    <t>kneeling-quad-stretch</t>
+  </si>
+  <si>
+    <t>kneeling-hip-flexor-stretch</t>
+  </si>
+  <si>
+    <t>foam-roller-quads</t>
+  </si>
+  <si>
+    <t>foam-roller-it-iliotibial-band-stretch</t>
+  </si>
+  <si>
+    <t>foam-roller-inner-thigh-adductor-stretch</t>
+  </si>
+  <si>
+    <t>foam-roller-hamstrings</t>
+  </si>
+  <si>
+    <t>toes-to-bar</t>
+  </si>
+  <si>
+    <t>untitled-8</t>
+  </si>
+  <si>
+    <t>seated-crunch-machine</t>
+  </si>
+  <si>
+    <t>untitled-11</t>
+  </si>
+  <si>
+    <t>untitled</t>
+  </si>
+  <si>
+    <t>untitled-7</t>
+  </si>
+  <si>
+    <t>untitled-10</t>
+  </si>
+  <si>
+    <t>untitled-9</t>
+  </si>
+  <si>
+    <t>untitled-6</t>
+  </si>
+  <si>
+    <t>untitled-5</t>
+  </si>
+  <si>
+    <t>untitled-4</t>
+  </si>
+  <si>
+    <t>toe-reaches</t>
+  </si>
+  <si>
+    <t>swiss-ball-rollout</t>
+  </si>
+  <si>
+    <t>standing-cable-low-to-high-twist</t>
+  </si>
+  <si>
+    <t>standing-cable-high-to-low-twist</t>
+  </si>
+  <si>
+    <t>standing-cable-crunch</t>
+  </si>
+  <si>
+    <t>kneeling-cable-crunch</t>
+  </si>
+  <si>
+    <t>cable-side-bend</t>
+  </si>
+  <si>
+    <t>cable-seated-cross-arm-twist</t>
+  </si>
+  <si>
+    <t>burpees</t>
+  </si>
+  <si>
+    <t>bodyweight-windmill</t>
+  </si>
+  <si>
+    <t>bear-crawl</t>
+  </si>
+  <si>
+    <t>stability-ball-knee-tuck</t>
+  </si>
+  <si>
+    <t>spider-plank</t>
+  </si>
+  <si>
+    <t>sit-ups</t>
+  </si>
+  <si>
+    <t>side-plank-leg-raises</t>
+  </si>
+  <si>
+    <t>side-bridge</t>
+  </si>
+  <si>
+    <t>seated-side-crunches</t>
+  </si>
+  <si>
+    <t>seated-oblique-twist</t>
+  </si>
+  <si>
+    <t>seated-flutter-kick</t>
+  </si>
+  <si>
+    <t>seated-bench-leg-pull-in</t>
+  </si>
+  <si>
+    <t>russian-twist</t>
+  </si>
+  <si>
+    <t>reverse-plank-kicks</t>
+  </si>
+  <si>
+    <t>reverse-crunch-1</t>
+  </si>
+  <si>
+    <t>plank</t>
+  </si>
+  <si>
+    <t>plank-leg-lift</t>
+  </si>
+  <si>
+    <t>oblique-floor-crunches</t>
+  </si>
+  <si>
+    <t>mountain-climber</t>
+  </si>
+  <si>
+    <t>lying-scissor-kick</t>
+  </si>
+  <si>
+    <t>lying-leg-and-hip-raise</t>
+  </si>
+  <si>
+    <t>lever-seated-twist</t>
+  </si>
+  <si>
+    <t>lever-lying-crunch</t>
+  </si>
+  <si>
+    <t>landmine-twist</t>
+  </si>
+  <si>
+    <t>kettlebell-windmill</t>
+  </si>
+  <si>
+    <t>incline-leg-hip-raise</t>
+  </si>
+  <si>
+    <t>heel-touch</t>
+  </si>
+  <si>
+    <t>hanging-windshield-wiper</t>
+  </si>
+  <si>
+    <t>half-wipers</t>
+  </si>
+  <si>
+    <t>frog-crunch</t>
+  </si>
+  <si>
+    <t>exercise-ball-frog-crunch</t>
+  </si>
+  <si>
+    <t>dumbbell-v-up</t>
+  </si>
+  <si>
+    <t>dumbbell-side-bend</t>
+  </si>
+  <si>
+    <t>decline-sit-up</t>
+  </si>
+  <si>
+    <t>bow-yoga-pose</t>
+  </si>
+  <si>
+    <t>abdominal-stretch</t>
+  </si>
+  <si>
+    <t>double-leg-stretch</t>
+  </si>
+  <si>
+    <t>standing-calf-raise</t>
+  </si>
+  <si>
+    <t>resistance-band-foot-external-rotation</t>
+  </si>
+  <si>
+    <t>lever-seated-calf-raise</t>
+  </si>
+  <si>
+    <t>lever-donkey-calf-raise</t>
+  </si>
+  <si>
+    <t>leg-press-calf-raise</t>
+  </si>
+  <si>
+    <t>hack-squat-calf-raise</t>
+  </si>
+  <si>
+    <t>hack-machine-one-leg-calf-raise</t>
+  </si>
+  <si>
+    <t>dumbbell-calf-raise</t>
+  </si>
+  <si>
+    <t>donkey-calf-raise</t>
+  </si>
+  <si>
+    <t>calf-raise-with-resistance-band</t>
+  </si>
+  <si>
+    <t>bench-press-machine-standing-calf-raise</t>
+  </si>
+  <si>
+    <t>barbell-seated-calf-raise</t>
+  </si>
+  <si>
+    <t>standing-wall-calf-stretch</t>
+  </si>
+  <si>
+    <t>standing-hamstring-stretch</t>
+  </si>
+  <si>
+    <t>single-heel-drop-calf-stretch</t>
+  </si>
+  <si>
+    <t>lunging-straight-leg-calf-stretch</t>
+  </si>
+  <si>
+    <t>calves-stretch-static-position</t>
+  </si>
+  <si>
+    <t>foam-roller-calves</t>
+  </si>
+  <si>
+    <t>barbell-glute-bridge</t>
+  </si>
+  <si>
+    <t>barbell-hip-thrust</t>
+  </si>
+  <si>
+    <t>bodyweight-hip-thrust</t>
+  </si>
+  <si>
+    <t>smith-machine-reverse-kickback</t>
+  </si>
+  <si>
+    <t>single-leg-bridge</t>
+  </si>
+  <si>
+    <t>lever-standing-rear-kick</t>
+  </si>
+  <si>
+    <t>pull-through-hips</t>
+  </si>
+  <si>
+    <t>hip-thrust-on-the-leg-extension-machine</t>
+  </si>
+  <si>
+    <t>hip-extension-on-bench</t>
+  </si>
+  <si>
+    <t>glute-bridge-on-bench</t>
+  </si>
+  <si>
+    <t>dumbbell-romanian-deadlift</t>
+  </si>
+  <si>
+    <t>dumbbell-glute-bridge</t>
+  </si>
+  <si>
+    <t>donkey-kick-on-smith-machine</t>
+  </si>
+  <si>
+    <t>donkey-kick-on-leg-extension-machine</t>
+  </si>
+  <si>
+    <t>cable-kneeling-pull-through</t>
+  </si>
+  <si>
+    <t>bodyweight-single-leg-deadlift</t>
+  </si>
+  <si>
+    <t>bench-glute-flutter-kicks</t>
+  </si>
+  <si>
+    <t>banded-step-up</t>
+  </si>
+  <si>
+    <t>banded-standing-glute-kickback</t>
+  </si>
+  <si>
+    <t>banded-glute-kickbacks</t>
+  </si>
+  <si>
+    <t>band-side-lying-clam</t>
+  </si>
+  <si>
+    <t>inner-thigh-side-stretch</t>
+  </si>
+  <si>
+    <t>foam-roller-glutes</t>
+  </si>
+  <si>
+    <t>smith-machine-behind-neck-press</t>
+  </si>
+  <si>
+    <t>barbell-shoulder-press</t>
+  </si>
+  <si>
+    <t>arnold-press</t>
+  </si>
+  <si>
+    <t>weighted-round-arm</t>
+  </si>
+  <si>
+    <t>weight-plate-front-raise-1</t>
+  </si>
+  <si>
+    <t>two-arm-cable-lateral-raise</t>
+  </si>
+  <si>
+    <t>two-arm-cable-front-raise</t>
+  </si>
+  <si>
+    <t>standing-barbell-close-grip-military-press</t>
+  </si>
+  <si>
+    <t>seated-rear-lateral-dumbbell-raise</t>
+  </si>
+  <si>
+    <t>seated-behind-the-neck-press</t>
+  </si>
+  <si>
+    <t>seated-dumbbell-lateral-raise</t>
+  </si>
+  <si>
+    <t>scott-press</t>
+  </si>
+  <si>
+    <t>rear-delt-machine-flys</t>
+  </si>
+  <si>
+    <t>push-press-1</t>
+  </si>
+  <si>
+    <t>lever-shoulder-press</t>
+  </si>
+  <si>
+    <t>leaning-single-arm-dumbbell-lateral-raise</t>
+  </si>
+  <si>
+    <t>leaning-cable-lateral-raise</t>
+  </si>
+  <si>
+    <t>lateral-raise-machine</t>
+  </si>
+  <si>
+    <t>half-kneeling-high-cable-row-rope</t>
+  </si>
+  <si>
+    <t>face-pull</t>
+  </si>
+  <si>
+    <t>dumbbell-upright-row</t>
+  </si>
+  <si>
+    <t>dumbbell-shoulder-press</t>
+  </si>
+  <si>
+    <t>dumbbell-lying-one-arm-rear-lateral-raise</t>
+  </si>
+  <si>
+    <t>dumbbell-lateral-raise</t>
+  </si>
+  <si>
+    <t>dumbbell-front-raise</t>
+  </si>
+  <si>
+    <t>dumbbell-chest-supported-lateral-raises</t>
+  </si>
+  <si>
+    <t>dumbbell-bent-arm-laterl-raise</t>
+  </si>
+  <si>
+    <t>cable-upright-row</t>
+  </si>
+  <si>
+    <t>cable-rear-delt-fly</t>
+  </si>
+  <si>
+    <t>cable-lateral-raise</t>
+  </si>
+  <si>
+    <t>cable-front-raise</t>
+  </si>
+  <si>
+    <t>c605ecc96aa1ca468c6c1c664b83cc1e</t>
+  </si>
+  <si>
+    <t>bodyweight-military-press</t>
+  </si>
+  <si>
+    <t>bent-over-reverse-cable-fly</t>
+  </si>
+  <si>
+    <t>bent-over-lateral-raise</t>
+  </si>
+  <si>
+    <t>barbell-upright-row</t>
+  </si>
+  <si>
+    <t>alternating-dumbbell-front-raise</t>
+  </si>
+  <si>
+    <t>59e0f783593222d74640be021e2ab7d4</t>
+  </si>
+  <si>
+    <t>0bac504381ee5fd4d2ad6c6653a3dbdb</t>
+  </si>
+  <si>
+    <t>standing-reverse-shoulder-stretch</t>
+  </si>
+  <si>
+    <t>untitled-3</t>
+  </si>
+  <si>
+    <t>untitled-2</t>
+  </si>
+  <si>
+    <t>triceps-extension-with-resistance-bands</t>
+  </si>
+  <si>
+    <t>triceps-extension-machine</t>
+  </si>
+  <si>
+    <t>triceps-dips</t>
+  </si>
+  <si>
+    <t>triceps-dips-on-floors</t>
+  </si>
+  <si>
+    <t>triceps-dips-on-floor</t>
+  </si>
+  <si>
+    <t>triceps-dip-machine</t>
+  </si>
+  <si>
+    <t>standing-triceps-extension</t>
+  </si>
+  <si>
+    <t>standing-barbell-triceps-extension</t>
+  </si>
+  <si>
+    <t>seated-one-arm-dumbbell-triceps-extension</t>
+  </si>
+  <si>
+    <t>seated-ez-bar-overhead-triceps-extension</t>
+  </si>
+  <si>
+    <t>seated-dumbbell-triceps-extension</t>
+  </si>
+  <si>
+    <t>rope-pushdown</t>
+  </si>
+  <si>
+    <t>reverse-grip-pushdown</t>
+  </si>
+  <si>
+    <t>rear-drive</t>
+  </si>
+  <si>
+    <t>pushdown</t>
+  </si>
+  <si>
+    <t>parallel-bar-dip</t>
+  </si>
+  <si>
+    <t>one-arm-pronated-dumbbell-triceps-extension-</t>
+  </si>
+  <si>
+    <t>dumbbell-seated-front-and-back-tate-press</t>
+  </si>
+  <si>
+    <t>dumbbell-kickback</t>
+  </si>
+  <si>
+    <t>dumbbell-incline-two-arm-extension</t>
+  </si>
+  <si>
+    <t>close-grip-bench-press</t>
+  </si>
+  <si>
+    <t>chair-dips</t>
+  </si>
+  <si>
+    <t>cable-tricep-kickback</t>
+  </si>
+  <si>
+    <t>cable-side-triceps-extension</t>
+  </si>
+  <si>
+    <t>cable-rope-overhead-triceps-extension</t>
+  </si>
+  <si>
+    <t>cable-one-arm-overhead-triceps-extension</t>
+  </si>
+  <si>
+    <t>cable-lying-triceps-extensions</t>
+  </si>
+  <si>
+    <t>cable-incline-triceps-extension</t>
+  </si>
+  <si>
+    <t>cable-crossover-triceps-extension</t>
+  </si>
+  <si>
+    <t>cable-concentration-extension-on-knee</t>
+  </si>
+  <si>
+    <t>bent-over-triceps-kickback</t>
+  </si>
+  <si>
+    <t>bench-dips</t>
+  </si>
+  <si>
+    <t>barbell-triceps-extension</t>
+  </si>
+  <si>
+    <t>triceps-stretch</t>
+  </si>
+  <si>
+    <t>zottman-curl</t>
+  </si>
+  <si>
+    <t>z-bar-preacher-curl</t>
+  </si>
+  <si>
+    <t>seated-incline-dumbbell-curl</t>
+  </si>
+  <si>
+    <t>seated-hammer-curl</t>
+  </si>
+  <si>
+    <t>seated-close-grip-concentration-curl</t>
+  </si>
+  <si>
+    <t>seated-bicep-curl-with-resistance-band</t>
+  </si>
+  <si>
+    <t>rope-bicep-curls</t>
+  </si>
+  <si>
+    <t>reverse-grip-ez-bar-curl</t>
+  </si>
+  <si>
+    <t>prone-incline-biceps-curl</t>
+  </si>
+  <si>
+    <t>overhead-cable-curl</t>
+  </si>
+  <si>
+    <t>one-arm-prone-dumbbell-curl</t>
+  </si>
+  <si>
+    <t>one-arm-cable-curl</t>
+  </si>
+  <si>
+    <t>lying-high-bench-barbell-curl</t>
+  </si>
+  <si>
+    <t>lying-cable-curl</t>
+  </si>
+  <si>
+    <t>lever-preacher-curl</t>
+  </si>
+  <si>
+    <t>high-cable-single-arm-bicep-curl</t>
+  </si>
+  <si>
+    <t>hammer-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-scott-hammer-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-scot-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-reverse-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-preacher-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-high-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-curl</t>
+  </si>
+  <si>
+    <t>double-arm-dumbbell-curl</t>
+  </si>
+  <si>
+    <t>concentration-curl</t>
+  </si>
+  <si>
+    <t>cable-two-arm-curl-on-incline-bench</t>
+  </si>
+  <si>
+    <t>cable-preacher-curls</t>
+  </si>
+  <si>
+    <t>cable-curl</t>
+  </si>
+  <si>
+    <t>cable-concentration-curl</t>
+  </si>
+  <si>
+    <t>brachialis-pull-up</t>
+  </si>
+  <si>
+    <t>biceps-leg-concentration-curl</t>
+  </si>
+  <si>
+    <t>bicep-curl-machine</t>
+  </si>
+  <si>
+    <t>arm-blaster-hammer-curl</t>
+  </si>
+  <si>
+    <t>wrist-roller</t>
+  </si>
+  <si>
+    <t>weighted-wrist-curl</t>
+  </si>
+  <si>
+    <t>reverse-wrist-curl</t>
+  </si>
+  <si>
+    <t>hand-gripper</t>
+  </si>
+  <si>
+    <t>dumbbell-wrist-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-seated-neutral-wrist-curl</t>
+  </si>
+  <si>
+    <t>dumbbell-preacher-hammer-curl</t>
+  </si>
+  <si>
+    <t>cable-one-arm-wrist-curl-on-floor</t>
+  </si>
+  <si>
+    <t>behind-the-back-barbell-wrist-curl</t>
+  </si>
+  <si>
+    <t>barbell-wrist-curl</t>
+  </si>
+  <si>
+    <t>barbell-reverse-wrist-curl</t>
+  </si>
+  <si>
+    <t>barbell-reverse-wrist-curl-over-a-bench</t>
+  </si>
+  <si>
+    <t>barbell-reverse-curl</t>
+  </si>
+  <si>
+    <t>wrist-circles-stretch</t>
+  </si>
+  <si>
+    <t>lying-weighted-neck-flexion</t>
+  </si>
+  <si>
+    <t>weighted-lying-neck-flexion</t>
+  </si>
+  <si>
+    <t>weighted-lying-neck-extension</t>
+  </si>
+  <si>
+    <t>side-neck-stretch</t>
+  </si>
+  <si>
+    <t>neck-flexion-stretch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neck-extension-stretching</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1794,6 +4210,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFE3E3E3"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1816,7 +4238,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1824,6 +4246,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2164,15 +4587,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H226"/>
+  <dimension ref="A1:H462"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A356" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H375" sqref="H375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="88.5" customWidth="1"/>
   </cols>
@@ -3406,6 +5830,9 @@
       </c>
     </row>
     <row r="54" spans="1:8">
+      <c r="A54" t="s">
+        <v>978</v>
+      </c>
       <c r="B54" t="s">
         <v>203</v>
       </c>
@@ -3414,6 +5841,9 @@
       </c>
     </row>
     <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>979</v>
+      </c>
       <c r="B55" t="s">
         <v>204</v>
       </c>
@@ -3422,6 +5852,9 @@
       </c>
     </row>
     <row r="56" spans="1:8">
+      <c r="A56" t="s">
+        <v>980</v>
+      </c>
       <c r="B56" t="s">
         <v>205</v>
       </c>
@@ -3430,6 +5863,9 @@
       </c>
     </row>
     <row r="57" spans="1:8">
+      <c r="A57" t="s">
+        <v>981</v>
+      </c>
       <c r="B57" t="s">
         <v>206</v>
       </c>
@@ -3438,6 +5874,9 @@
       </c>
     </row>
     <row r="58" spans="1:8">
+      <c r="A58" t="s">
+        <v>982</v>
+      </c>
       <c r="B58" t="s">
         <v>207</v>
       </c>
@@ -3446,6 +5885,9 @@
       </c>
     </row>
     <row r="59" spans="1:8">
+      <c r="A59" t="s">
+        <v>983</v>
+      </c>
       <c r="B59" t="s">
         <v>208</v>
       </c>
@@ -3454,6 +5896,9 @@
       </c>
     </row>
     <row r="60" spans="1:8">
+      <c r="A60" t="s">
+        <v>984</v>
+      </c>
       <c r="B60" t="s">
         <v>209</v>
       </c>
@@ -3462,6 +5907,9 @@
       </c>
     </row>
     <row r="61" spans="1:8">
+      <c r="A61" t="s">
+        <v>985</v>
+      </c>
       <c r="B61" t="s">
         <v>210</v>
       </c>
@@ -3470,6 +5918,9 @@
       </c>
     </row>
     <row r="62" spans="1:8">
+      <c r="A62" t="s">
+        <v>986</v>
+      </c>
       <c r="B62" t="s">
         <v>211</v>
       </c>
@@ -3478,6 +5929,9 @@
       </c>
     </row>
     <row r="63" spans="1:8">
+      <c r="A63" t="s">
+        <v>987</v>
+      </c>
       <c r="B63" t="s">
         <v>212</v>
       </c>
@@ -3486,6 +5940,9 @@
       </c>
     </row>
     <row r="64" spans="1:8">
+      <c r="A64" t="s">
+        <v>988</v>
+      </c>
       <c r="B64" t="s">
         <v>213</v>
       </c>
@@ -3493,7 +5950,10 @@
         <v>199</v>
       </c>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>989</v>
+      </c>
       <c r="B65" t="s">
         <v>214</v>
       </c>
@@ -3501,7 +5961,10 @@
         <v>200</v>
       </c>
     </row>
-    <row r="66" spans="2:3">
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>990</v>
+      </c>
       <c r="B66" t="s">
         <v>215</v>
       </c>
@@ -3509,7 +5972,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>991</v>
+      </c>
       <c r="B67" t="s">
         <v>216</v>
       </c>
@@ -3517,7 +5983,10 @@
         <v>258</v>
       </c>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>992</v>
+      </c>
       <c r="B68" t="s">
         <v>217</v>
       </c>
@@ -3525,7 +5994,10 @@
         <v>259</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>993</v>
+      </c>
       <c r="B69" t="s">
         <v>218</v>
       </c>
@@ -3533,7 +6005,10 @@
         <v>260</v>
       </c>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>994</v>
+      </c>
       <c r="B70" t="s">
         <v>219</v>
       </c>
@@ -3541,7 +6016,10 @@
         <v>261</v>
       </c>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>995</v>
+      </c>
       <c r="B71" t="s">
         <v>220</v>
       </c>
@@ -3549,7 +6027,10 @@
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>996</v>
+      </c>
       <c r="B72" t="s">
         <v>239</v>
       </c>
@@ -3557,7 +6038,10 @@
         <v>221</v>
       </c>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>997</v>
+      </c>
       <c r="B73" t="s">
         <v>240</v>
       </c>
@@ -3565,7 +6049,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>998</v>
+      </c>
       <c r="B74" t="s">
         <v>241</v>
       </c>
@@ -3573,7 +6060,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>999</v>
+      </c>
       <c r="B75" t="s">
         <v>242</v>
       </c>
@@ -3581,7 +6071,10 @@
         <v>232</v>
       </c>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>1000</v>
+      </c>
       <c r="B76" t="s">
         <v>243</v>
       </c>
@@ -3589,7 +6082,10 @@
         <v>233</v>
       </c>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>1001</v>
+      </c>
       <c r="B77" t="s">
         <v>244</v>
       </c>
@@ -3597,7 +6093,10 @@
         <v>224</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>1002</v>
+      </c>
       <c r="B78" t="s">
         <v>245</v>
       </c>
@@ -3605,7 +6104,10 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>1003</v>
+      </c>
       <c r="B79" t="s">
         <v>246</v>
       </c>
@@ -3613,7 +6115,10 @@
         <v>226</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>1004</v>
+      </c>
       <c r="B80" t="s">
         <v>247</v>
       </c>
@@ -3621,7 +6126,10 @@
         <v>227</v>
       </c>
     </row>
-    <row r="81" spans="2:3">
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>1005</v>
+      </c>
       <c r="B81" t="s">
         <v>248</v>
       </c>
@@ -3629,7 +6137,10 @@
         <v>234</v>
       </c>
     </row>
-    <row r="82" spans="2:3">
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>1006</v>
+      </c>
       <c r="B82" t="s">
         <v>249</v>
       </c>
@@ -3637,7 +6148,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="83" spans="2:3">
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>1007</v>
+      </c>
       <c r="B83" t="s">
         <v>249</v>
       </c>
@@ -3645,7 +6159,10 @@
         <v>235</v>
       </c>
     </row>
-    <row r="84" spans="2:3">
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>1008</v>
+      </c>
       <c r="B84" t="s">
         <v>250</v>
       </c>
@@ -3653,7 +6170,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="85" spans="2:3">
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>1009</v>
+      </c>
       <c r="B85" t="s">
         <v>251</v>
       </c>
@@ -3661,7 +6181,10 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="2:3">
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>1010</v>
+      </c>
       <c r="B86" t="s">
         <v>252</v>
       </c>
@@ -3669,7 +6192,10 @@
         <v>237</v>
       </c>
     </row>
-    <row r="87" spans="2:3">
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>1011</v>
+      </c>
       <c r="B87" t="s">
         <v>253</v>
       </c>
@@ -3677,7 +6203,10 @@
         <v>238</v>
       </c>
     </row>
-    <row r="88" spans="2:3">
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>1012</v>
+      </c>
       <c r="B88" t="s">
         <v>254</v>
       </c>
@@ -3685,7 +6214,10 @@
         <v>230</v>
       </c>
     </row>
-    <row r="89" spans="2:3">
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>1013</v>
+      </c>
       <c r="B89" t="s">
         <v>255</v>
       </c>
@@ -3693,7 +6225,10 @@
         <v>231</v>
       </c>
     </row>
-    <row r="90" spans="2:3">
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>1014</v>
+      </c>
       <c r="B90" t="s">
         <v>274</v>
       </c>
@@ -3701,7 +6236,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="91" spans="2:3">
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>1015</v>
+      </c>
       <c r="B91" t="s">
         <v>275</v>
       </c>
@@ -3709,7 +6247,10 @@
         <v>263</v>
       </c>
     </row>
-    <row r="92" spans="2:3">
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>1016</v>
+      </c>
       <c r="B92" t="s">
         <v>276</v>
       </c>
@@ -3717,7 +6258,10 @@
         <v>264</v>
       </c>
     </row>
-    <row r="93" spans="2:3">
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>1017</v>
+      </c>
       <c r="B93" t="s">
         <v>277</v>
       </c>
@@ -3725,7 +6269,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="94" spans="2:3">
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>1018</v>
+      </c>
       <c r="B94" t="s">
         <v>278</v>
       </c>
@@ -3733,7 +6280,10 @@
         <v>266</v>
       </c>
     </row>
-    <row r="95" spans="2:3">
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>1019</v>
+      </c>
       <c r="B95" t="s">
         <v>219</v>
       </c>
@@ -3741,7 +6291,10 @@
         <v>267</v>
       </c>
     </row>
-    <row r="96" spans="2:3">
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>1020</v>
+      </c>
       <c r="B96" t="s">
         <v>279</v>
       </c>
@@ -3749,7 +6302,10 @@
         <v>268</v>
       </c>
     </row>
-    <row r="97" spans="2:3">
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>1021</v>
+      </c>
       <c r="B97" t="s">
         <v>280</v>
       </c>
@@ -3757,7 +6313,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="98" spans="2:3">
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>1022</v>
+      </c>
       <c r="B98" t="s">
         <v>281</v>
       </c>
@@ -3765,7 +6324,10 @@
         <v>270</v>
       </c>
     </row>
-    <row r="99" spans="2:3">
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>1023</v>
+      </c>
       <c r="B99" t="s">
         <v>282</v>
       </c>
@@ -3773,7 +6335,10 @@
         <v>271</v>
       </c>
     </row>
-    <row r="100" spans="2:3">
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>1024</v>
+      </c>
       <c r="B100" t="s">
         <v>283</v>
       </c>
@@ -3781,7 +6346,10 @@
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="2:3">
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>1025</v>
+      </c>
       <c r="B101" t="s">
         <v>284</v>
       </c>
@@ -3789,7 +6357,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="102" spans="2:3">
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>1026</v>
+      </c>
       <c r="B102" t="s">
         <v>300</v>
       </c>
@@ -3797,7 +6368,10 @@
         <v>285</v>
       </c>
     </row>
-    <row r="103" spans="2:3">
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>1027</v>
+      </c>
       <c r="B103" t="s">
         <v>301</v>
       </c>
@@ -3805,7 +6379,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="104" spans="2:3">
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>1028</v>
+      </c>
       <c r="B104" t="s">
         <v>302</v>
       </c>
@@ -3813,7 +6390,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="2:3">
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>1029</v>
+      </c>
       <c r="B105" t="s">
         <v>303</v>
       </c>
@@ -3821,7 +6401,10 @@
         <v>288</v>
       </c>
     </row>
-    <row r="106" spans="2:3">
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>1030</v>
+      </c>
       <c r="B106" t="s">
         <v>304</v>
       </c>
@@ -3829,7 +6412,10 @@
         <v>289</v>
       </c>
     </row>
-    <row r="107" spans="2:3">
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>1031</v>
+      </c>
       <c r="B107" t="s">
         <v>305</v>
       </c>
@@ -3837,7 +6423,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="108" spans="2:3">
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>1032</v>
+      </c>
       <c r="B108" t="s">
         <v>306</v>
       </c>
@@ -3845,7 +6434,10 @@
         <v>291</v>
       </c>
     </row>
-    <row r="109" spans="2:3">
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>1033</v>
+      </c>
       <c r="B109" t="s">
         <v>307</v>
       </c>
@@ -3853,7 +6445,10 @@
         <v>292</v>
       </c>
     </row>
-    <row r="110" spans="2:3">
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>1034</v>
+      </c>
       <c r="B110" t="s">
         <v>308</v>
       </c>
@@ -3861,7 +6456,10 @@
         <v>293</v>
       </c>
     </row>
-    <row r="111" spans="2:3">
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>1035</v>
+      </c>
       <c r="B111" t="s">
         <v>309</v>
       </c>
@@ -3869,7 +6467,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="2:3">
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>1036</v>
+      </c>
       <c r="B112" t="s">
         <v>310</v>
       </c>
@@ -3877,7 +6478,10 @@
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
+    <row r="113" spans="1:6">
+      <c r="A113" t="s">
+        <v>1037</v>
+      </c>
       <c r="B113" t="s">
         <v>311</v>
       </c>
@@ -3885,7 +6489,10 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="2:6">
+    <row r="114" spans="1:6">
+      <c r="A114" t="s">
+        <v>1038</v>
+      </c>
       <c r="B114" t="s">
         <v>312</v>
       </c>
@@ -3893,7 +6500,10 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="2:6">
+    <row r="115" spans="1:6">
+      <c r="A115" t="s">
+        <v>1039</v>
+      </c>
       <c r="B115" t="s">
         <v>313</v>
       </c>
@@ -3901,7 +6511,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="116" spans="2:6">
+    <row r="116" spans="1:6">
+      <c r="A116" t="s">
+        <v>1040</v>
+      </c>
       <c r="B116" t="s">
         <v>314</v>
       </c>
@@ -3909,7 +6522,10 @@
         <v>299</v>
       </c>
     </row>
-    <row r="117" spans="2:6">
+    <row r="117" spans="1:6">
+      <c r="A117" t="s">
+        <v>1041</v>
+      </c>
       <c r="B117" t="s">
         <v>325</v>
       </c>
@@ -3917,7 +6533,10 @@
         <v>315</v>
       </c>
     </row>
-    <row r="118" spans="2:6">
+    <row r="118" spans="1:6">
+      <c r="A118" t="s">
+        <v>1042</v>
+      </c>
       <c r="B118" t="s">
         <v>326</v>
       </c>
@@ -3925,7 +6544,10 @@
         <v>316</v>
       </c>
     </row>
-    <row r="119" spans="2:6">
+    <row r="119" spans="1:6">
+      <c r="A119" t="s">
+        <v>1043</v>
+      </c>
       <c r="B119" t="s">
         <v>327</v>
       </c>
@@ -3933,7 +6555,10 @@
         <v>317</v>
       </c>
     </row>
-    <row r="120" spans="2:6">
+    <row r="120" spans="1:6">
+      <c r="A120" t="s">
+        <v>1044</v>
+      </c>
       <c r="B120" t="s">
         <v>328</v>
       </c>
@@ -3941,7 +6566,10 @@
         <v>318</v>
       </c>
     </row>
-    <row r="121" spans="2:6">
+    <row r="121" spans="1:6">
+      <c r="A121" t="s">
+        <v>187</v>
+      </c>
       <c r="B121" t="s">
         <v>329</v>
       </c>
@@ -3949,7 +6577,10 @@
         <v>319</v>
       </c>
     </row>
-    <row r="122" spans="2:6">
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>1045</v>
+      </c>
       <c r="B122" t="s">
         <v>330</v>
       </c>
@@ -3957,7 +6588,10 @@
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="2:6">
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>184</v>
+      </c>
       <c r="B123" t="s">
         <v>331</v>
       </c>
@@ -3965,7 +6599,10 @@
         <v>321</v>
       </c>
     </row>
-    <row r="124" spans="2:6">
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>1046</v>
+      </c>
       <c r="B124" t="s">
         <v>332</v>
       </c>
@@ -3973,7 +6610,10 @@
         <v>322</v>
       </c>
     </row>
-    <row r="125" spans="2:6">
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>1047</v>
+      </c>
       <c r="B125" t="s">
         <v>333</v>
       </c>
@@ -3981,7 +6621,10 @@
         <v>323</v>
       </c>
     </row>
-    <row r="126" spans="2:6">
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>1048</v>
+      </c>
       <c r="B126" t="s">
         <v>334</v>
       </c>
@@ -3989,7 +6632,10 @@
         <v>324</v>
       </c>
     </row>
-    <row r="127" spans="2:6">
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>1049</v>
+      </c>
       <c r="B127" t="s">
         <v>347</v>
       </c>
@@ -4003,7 +6649,10 @@
         <v>457</v>
       </c>
     </row>
-    <row r="128" spans="2:6">
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>1050</v>
+      </c>
       <c r="B128" t="s">
         <v>348</v>
       </c>
@@ -4011,7 +6660,10 @@
         <v>336</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>1051</v>
+      </c>
       <c r="B129" t="s">
         <v>349</v>
       </c>
@@ -4019,7 +6671,10 @@
         <v>337</v>
       </c>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>1052</v>
+      </c>
       <c r="B130" t="s">
         <v>350</v>
       </c>
@@ -4027,7 +6682,10 @@
         <v>338</v>
       </c>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>1053</v>
+      </c>
       <c r="B131" t="s">
         <v>351</v>
       </c>
@@ -4035,7 +6693,10 @@
         <v>339</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>1054</v>
+      </c>
       <c r="B132" t="s">
         <v>352</v>
       </c>
@@ -4043,7 +6704,10 @@
         <v>340</v>
       </c>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>1055</v>
+      </c>
       <c r="B133" t="s">
         <v>353</v>
       </c>
@@ -4051,7 +6715,10 @@
         <v>341</v>
       </c>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>1056</v>
+      </c>
       <c r="B134" t="s">
         <v>354</v>
       </c>
@@ -4059,7 +6726,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>1057</v>
+      </c>
       <c r="B135" t="s">
         <v>355</v>
       </c>
@@ -4067,7 +6737,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>1058</v>
+      </c>
       <c r="B136" t="s">
         <v>356</v>
       </c>
@@ -4075,7 +6748,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>1059</v>
+      </c>
       <c r="B137" t="s">
         <v>357</v>
       </c>
@@ -4083,7 +6759,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>1060</v>
+      </c>
       <c r="B138" t="s">
         <v>358</v>
       </c>
@@ -4091,7 +6770,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>1032</v>
+      </c>
       <c r="B139" t="s">
         <v>306</v>
       </c>
@@ -4099,7 +6781,10 @@
         <v>359</v>
       </c>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>1061</v>
+      </c>
       <c r="B140" t="s">
         <v>377</v>
       </c>
@@ -4107,7 +6792,10 @@
         <v>360</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>1062</v>
+      </c>
       <c r="B141" t="s">
         <v>378</v>
       </c>
@@ -4115,7 +6803,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>1063</v>
+      </c>
       <c r="B142" t="s">
         <v>379</v>
       </c>
@@ -4123,7 +6814,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>1064</v>
+      </c>
       <c r="B143" t="s">
         <v>380</v>
       </c>
@@ -4131,7 +6825,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>1065</v>
+      </c>
       <c r="B144" t="s">
         <v>381</v>
       </c>
@@ -4139,7 +6836,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="145" spans="2:3">
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>1066</v>
+      </c>
       <c r="B145" t="s">
         <v>382</v>
       </c>
@@ -4147,7 +6847,10 @@
         <v>365</v>
       </c>
     </row>
-    <row r="146" spans="2:3">
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>1067</v>
+      </c>
       <c r="B146" t="s">
         <v>383</v>
       </c>
@@ -4155,7 +6858,10 @@
         <v>366</v>
       </c>
     </row>
-    <row r="147" spans="2:3">
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>1068</v>
+      </c>
       <c r="B147" t="s">
         <v>384</v>
       </c>
@@ -4163,7 +6869,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="148" spans="2:3">
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>1069</v>
+      </c>
       <c r="B148" t="s">
         <v>385</v>
       </c>
@@ -4171,7 +6880,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="149" spans="2:3">
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>1070</v>
+      </c>
       <c r="B149" t="s">
         <v>386</v>
       </c>
@@ -4179,7 +6891,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="150" spans="2:3">
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>1071</v>
+      </c>
       <c r="B150" t="s">
         <v>387</v>
       </c>
@@ -4187,7 +6902,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="151" spans="2:3">
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>1072</v>
+      </c>
       <c r="B151" t="s">
         <v>388</v>
       </c>
@@ -4195,7 +6913,10 @@
         <v>371</v>
       </c>
     </row>
-    <row r="152" spans="2:3">
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>1073</v>
+      </c>
       <c r="B152" t="s">
         <v>389</v>
       </c>
@@ -4203,7 +6924,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="153" spans="2:3">
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>1074</v>
+      </c>
       <c r="B153" t="s">
         <v>390</v>
       </c>
@@ -4211,7 +6935,10 @@
         <v>373</v>
       </c>
     </row>
-    <row r="154" spans="2:3">
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>1075</v>
+      </c>
       <c r="B154" t="s">
         <v>391</v>
       </c>
@@ -4219,7 +6946,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="155" spans="2:3">
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>1076</v>
+      </c>
       <c r="B155" t="s">
         <v>392</v>
       </c>
@@ -4227,7 +6957,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="156" spans="2:3">
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>1040</v>
+      </c>
       <c r="B156" t="s">
         <v>314</v>
       </c>
@@ -4235,7 +6968,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="157" spans="2:3">
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>1077</v>
+      </c>
       <c r="B157" t="s">
         <v>416</v>
       </c>
@@ -4243,7 +6979,10 @@
         <v>393</v>
       </c>
     </row>
-    <row r="158" spans="2:3">
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>1078</v>
+      </c>
       <c r="B158" t="s">
         <v>417</v>
       </c>
@@ -4251,7 +6990,10 @@
         <v>394</v>
       </c>
     </row>
-    <row r="159" spans="2:3">
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>1079</v>
+      </c>
       <c r="B159" t="s">
         <v>418</v>
       </c>
@@ -4259,7 +7001,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="160" spans="2:3">
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>1080</v>
+      </c>
       <c r="B160" t="s">
         <v>419</v>
       </c>
@@ -4267,7 +7012,10 @@
         <v>396</v>
       </c>
     </row>
-    <row r="161" spans="2:3">
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>1081</v>
+      </c>
       <c r="B161" t="s">
         <v>420</v>
       </c>
@@ -4275,7 +7023,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="162" spans="2:3">
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>1060</v>
+      </c>
       <c r="B162" t="s">
         <v>358</v>
       </c>
@@ -4283,7 +7034,10 @@
         <v>346</v>
       </c>
     </row>
-    <row r="163" spans="2:3">
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>1082</v>
+      </c>
       <c r="B163" t="s">
         <v>421</v>
       </c>
@@ -4291,7 +7045,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="164" spans="2:3">
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>1083</v>
+      </c>
       <c r="B164" t="s">
         <v>422</v>
       </c>
@@ -4299,7 +7056,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="165" spans="2:3">
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>1084</v>
+      </c>
       <c r="B165" t="s">
         <v>423</v>
       </c>
@@ -4307,7 +7067,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="166" spans="2:3">
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>1085</v>
+      </c>
       <c r="B166" t="s">
         <v>424</v>
       </c>
@@ -4315,7 +7078,10 @@
         <v>401</v>
       </c>
     </row>
-    <row r="167" spans="2:3">
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>1086</v>
+      </c>
       <c r="B167" t="s">
         <v>425</v>
       </c>
@@ -4323,7 +7089,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="168" spans="2:3">
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>1087</v>
+      </c>
       <c r="B168" t="s">
         <v>426</v>
       </c>
@@ -4331,7 +7100,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="169" spans="2:3">
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>1088</v>
+      </c>
       <c r="B169" t="s">
         <v>427</v>
       </c>
@@ -4339,7 +7111,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="170" spans="2:3">
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>1025</v>
+      </c>
       <c r="B170" t="s">
         <v>428</v>
       </c>
@@ -4347,7 +7122,10 @@
         <v>405</v>
       </c>
     </row>
-    <row r="171" spans="2:3">
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>1089</v>
+      </c>
       <c r="B171" t="s">
         <v>429</v>
       </c>
@@ -4355,7 +7133,10 @@
         <v>406</v>
       </c>
     </row>
-    <row r="172" spans="2:3">
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>1090</v>
+      </c>
       <c r="B172" t="s">
         <v>430</v>
       </c>
@@ -4363,7 +7144,10 @@
         <v>407</v>
       </c>
     </row>
-    <row r="173" spans="2:3">
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>1022</v>
+      </c>
       <c r="B173" t="s">
         <v>431</v>
       </c>
@@ -4371,7 +7155,10 @@
         <v>408</v>
       </c>
     </row>
-    <row r="174" spans="2:3">
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>1091</v>
+      </c>
       <c r="B174" t="s">
         <v>432</v>
       </c>
@@ -4379,7 +7166,10 @@
         <v>409</v>
       </c>
     </row>
-    <row r="175" spans="2:3">
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>1092</v>
+      </c>
       <c r="B175" t="s">
         <v>433</v>
       </c>
@@ -4387,7 +7177,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="176" spans="2:3">
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>1031</v>
+      </c>
       <c r="B176" t="s">
         <v>305</v>
       </c>
@@ -4395,7 +7188,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="177" spans="2:6">
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>1093</v>
+      </c>
       <c r="B177" t="s">
         <v>434</v>
       </c>
@@ -4403,7 +7199,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="178" spans="2:6">
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>1094</v>
+      </c>
       <c r="B178" t="s">
         <v>435</v>
       </c>
@@ -4411,7 +7210,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="179" spans="2:6">
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>1095</v>
+      </c>
       <c r="B179" t="s">
         <v>436</v>
       </c>
@@ -4419,7 +7221,10 @@
         <v>414</v>
       </c>
     </row>
-    <row r="180" spans="2:6">
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>1096</v>
+      </c>
       <c r="B180" t="s">
         <v>437</v>
       </c>
@@ -4427,7 +7232,10 @@
         <v>415</v>
       </c>
     </row>
-    <row r="181" spans="2:6">
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>1097</v>
+      </c>
       <c r="B181" t="s">
         <v>438</v>
       </c>
@@ -4435,7 +7243,10 @@
         <v>447</v>
       </c>
     </row>
-    <row r="182" spans="2:6">
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>1098</v>
+      </c>
       <c r="B182" t="s">
         <v>439</v>
       </c>
@@ -4443,7 +7254,10 @@
         <v>448</v>
       </c>
     </row>
-    <row r="183" spans="2:6">
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>1099</v>
+      </c>
       <c r="B183" t="s">
         <v>440</v>
       </c>
@@ -4451,7 +7265,10 @@
         <v>449</v>
       </c>
     </row>
-    <row r="184" spans="2:6">
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>1100</v>
+      </c>
       <c r="B184" t="s">
         <v>441</v>
       </c>
@@ -4459,7 +7276,10 @@
         <v>450</v>
       </c>
     </row>
-    <row r="185" spans="2:6">
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>1101</v>
+      </c>
       <c r="B185" t="s">
         <v>442</v>
       </c>
@@ -4467,7 +7287,10 @@
         <v>451</v>
       </c>
     </row>
-    <row r="186" spans="2:6">
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>1102</v>
+      </c>
       <c r="B186" t="s">
         <v>443</v>
       </c>
@@ -4475,7 +7298,10 @@
         <v>452</v>
       </c>
     </row>
-    <row r="187" spans="2:6">
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>1103</v>
+      </c>
       <c r="B187" t="s">
         <v>444</v>
       </c>
@@ -4483,7 +7309,10 @@
         <v>453</v>
       </c>
     </row>
-    <row r="188" spans="2:6">
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>1104</v>
+      </c>
       <c r="B188" t="s">
         <v>132</v>
       </c>
@@ -4491,7 +7320,10 @@
         <v>454</v>
       </c>
     </row>
-    <row r="189" spans="2:6">
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>1105</v>
+      </c>
       <c r="B189" t="s">
         <v>445</v>
       </c>
@@ -4499,7 +7331,10 @@
         <v>455</v>
       </c>
     </row>
-    <row r="190" spans="2:6">
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>1106</v>
+      </c>
       <c r="B190" t="s">
         <v>446</v>
       </c>
@@ -4507,7 +7342,10 @@
         <v>456</v>
       </c>
     </row>
-    <row r="191" spans="2:6">
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>1107</v>
+      </c>
       <c r="B191" t="s">
         <v>478</v>
       </c>
@@ -4518,7 +7356,10 @@
         <v>477</v>
       </c>
     </row>
-    <row r="192" spans="2:6">
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>1108</v>
+      </c>
       <c r="B192" t="s">
         <v>479</v>
       </c>
@@ -4526,7 +7367,10 @@
         <v>460</v>
       </c>
     </row>
-    <row r="193" spans="2:3">
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>1109</v>
+      </c>
       <c r="B193" t="s">
         <v>480</v>
       </c>
@@ -4534,7 +7378,10 @@
         <v>461</v>
       </c>
     </row>
-    <row r="194" spans="2:3">
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>1110</v>
+      </c>
       <c r="B194" t="s">
         <v>481</v>
       </c>
@@ -4542,7 +7389,10 @@
         <v>462</v>
       </c>
     </row>
-    <row r="195" spans="2:3">
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>1111</v>
+      </c>
       <c r="B195" t="s">
         <v>482</v>
       </c>
@@ -4550,7 +7400,10 @@
         <v>463</v>
       </c>
     </row>
-    <row r="196" spans="2:3">
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>1112</v>
+      </c>
       <c r="B196" t="s">
         <v>483</v>
       </c>
@@ -4558,7 +7411,10 @@
         <v>464</v>
       </c>
     </row>
-    <row r="197" spans="2:3">
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>1113</v>
+      </c>
       <c r="B197" t="s">
         <v>484</v>
       </c>
@@ -4566,7 +7422,10 @@
         <v>465</v>
       </c>
     </row>
-    <row r="198" spans="2:3">
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>1114</v>
+      </c>
       <c r="B198" t="s">
         <v>485</v>
       </c>
@@ -4574,7 +7433,10 @@
         <v>466</v>
       </c>
     </row>
-    <row r="199" spans="2:3">
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>1115</v>
+      </c>
       <c r="B199" t="s">
         <v>486</v>
       </c>
@@ -4582,7 +7444,10 @@
         <v>467</v>
       </c>
     </row>
-    <row r="200" spans="2:3">
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>1116</v>
+      </c>
       <c r="B200" t="s">
         <v>487</v>
       </c>
@@ -4590,7 +7455,10 @@
         <v>468</v>
       </c>
     </row>
-    <row r="201" spans="2:3">
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>1117</v>
+      </c>
       <c r="B201" t="s">
         <v>488</v>
       </c>
@@ -4598,7 +7466,10 @@
         <v>469</v>
       </c>
     </row>
-    <row r="202" spans="2:3">
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>1118</v>
+      </c>
       <c r="B202" t="s">
         <v>489</v>
       </c>
@@ -4606,7 +7477,10 @@
         <v>470</v>
       </c>
     </row>
-    <row r="203" spans="2:3">
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>1119</v>
+      </c>
       <c r="B203" t="s">
         <v>490</v>
       </c>
@@ -4614,7 +7488,10 @@
         <v>471</v>
       </c>
     </row>
-    <row r="204" spans="2:3">
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>1120</v>
+      </c>
       <c r="B204" t="s">
         <v>491</v>
       </c>
@@ -4622,7 +7499,10 @@
         <v>472</v>
       </c>
     </row>
-    <row r="205" spans="2:3">
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>1121</v>
+      </c>
       <c r="B205" t="s">
         <v>492</v>
       </c>
@@ -4630,7 +7510,10 @@
         <v>473</v>
       </c>
     </row>
-    <row r="206" spans="2:3">
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>1122</v>
+      </c>
       <c r="B206" t="s">
         <v>493</v>
       </c>
@@ -4638,7 +7521,10 @@
         <v>474</v>
       </c>
     </row>
-    <row r="207" spans="2:3">
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>1123</v>
+      </c>
       <c r="B207" t="s">
         <v>494</v>
       </c>
@@ -4646,7 +7532,10 @@
         <v>475</v>
       </c>
     </row>
-    <row r="208" spans="2:3">
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>1124</v>
+      </c>
       <c r="B208" t="s">
         <v>495</v>
       </c>
@@ -4654,7 +7543,10 @@
         <v>476</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>1125</v>
+      </c>
       <c r="B209" t="s">
         <v>514</v>
       </c>
@@ -4662,7 +7554,10 @@
         <v>496</v>
       </c>
     </row>
-    <row r="210" spans="2:3">
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>1126</v>
+      </c>
       <c r="B210" t="s">
         <v>515</v>
       </c>
@@ -4670,7 +7565,10 @@
         <v>497</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>1127</v>
+      </c>
       <c r="B211" t="s">
         <v>516</v>
       </c>
@@ -4678,7 +7576,10 @@
         <v>498</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>1128</v>
+      </c>
       <c r="B212" t="s">
         <v>517</v>
       </c>
@@ -4686,7 +7587,10 @@
         <v>499</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>1129</v>
+      </c>
       <c r="B213" t="s">
         <v>518</v>
       </c>
@@ -4694,7 +7598,10 @@
         <v>500</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>1130</v>
+      </c>
       <c r="B214" t="s">
         <v>519</v>
       </c>
@@ -4702,7 +7609,10 @@
         <v>501</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>1131</v>
+      </c>
       <c r="B215" t="s">
         <v>520</v>
       </c>
@@ -4710,7 +7620,10 @@
         <v>502</v>
       </c>
     </row>
-    <row r="216" spans="2:3">
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>1132</v>
+      </c>
       <c r="B216" t="s">
         <v>521</v>
       </c>
@@ -4718,7 +7631,10 @@
         <v>503</v>
       </c>
     </row>
-    <row r="217" spans="2:3">
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>1133</v>
+      </c>
       <c r="B217" t="s">
         <v>522</v>
       </c>
@@ -4726,7 +7642,10 @@
         <v>504</v>
       </c>
     </row>
-    <row r="218" spans="2:3">
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>1134</v>
+      </c>
       <c r="B218" t="s">
         <v>523</v>
       </c>
@@ -4734,7 +7653,10 @@
         <v>505</v>
       </c>
     </row>
-    <row r="219" spans="2:3">
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>1135</v>
+      </c>
       <c r="B219" t="s">
         <v>524</v>
       </c>
@@ -4742,7 +7664,10 @@
         <v>506</v>
       </c>
     </row>
-    <row r="220" spans="2:3">
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>1136</v>
+      </c>
       <c r="B220" t="s">
         <v>525</v>
       </c>
@@ -4750,7 +7675,10 @@
         <v>507</v>
       </c>
     </row>
-    <row r="221" spans="2:3">
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>1137</v>
+      </c>
       <c r="B221" t="s">
         <v>526</v>
       </c>
@@ -4758,7 +7686,10 @@
         <v>508</v>
       </c>
     </row>
-    <row r="222" spans="2:3">
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>1138</v>
+      </c>
       <c r="B222" t="s">
         <v>527</v>
       </c>
@@ -4766,7 +7697,10 @@
         <v>509</v>
       </c>
     </row>
-    <row r="223" spans="2:3">
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>1139</v>
+      </c>
       <c r="B223" t="s">
         <v>528</v>
       </c>
@@ -4774,7 +7708,10 @@
         <v>510</v>
       </c>
     </row>
-    <row r="224" spans="2:3">
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>1140</v>
+      </c>
       <c r="B224" t="s">
         <v>488</v>
       </c>
@@ -4782,7 +7719,10 @@
         <v>511</v>
       </c>
     </row>
-    <row r="225" spans="2:3">
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>1141</v>
+      </c>
       <c r="B225" t="s">
         <v>529</v>
       </c>
@@ -4790,12 +7730,2632 @@
         <v>512</v>
       </c>
     </row>
-    <row r="226" spans="2:3">
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>1142</v>
+      </c>
       <c r="B226" t="s">
         <v>530</v>
       </c>
       <c r="C226" t="s">
         <v>513</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B227" t="s">
+        <v>552</v>
+      </c>
+      <c r="C227" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B228" t="s">
+        <v>553</v>
+      </c>
+      <c r="C228" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B229" t="s">
+        <v>554</v>
+      </c>
+      <c r="C229" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B230" t="s">
+        <v>555</v>
+      </c>
+      <c r="C230" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B231" t="s">
+        <v>556</v>
+      </c>
+      <c r="C231" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B232" t="s">
+        <v>482</v>
+      </c>
+      <c r="C232" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B233" t="s">
+        <v>557</v>
+      </c>
+      <c r="C233" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B234" t="s">
+        <v>558</v>
+      </c>
+      <c r="C234" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B235" t="s">
+        <v>559</v>
+      </c>
+      <c r="C235" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B236" t="s">
+        <v>560</v>
+      </c>
+      <c r="C236" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B237" t="s">
+        <v>561</v>
+      </c>
+      <c r="C237" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B238" t="s">
+        <v>562</v>
+      </c>
+      <c r="C238" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B239" t="s">
+        <v>563</v>
+      </c>
+      <c r="C239" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B240" t="s">
+        <v>564</v>
+      </c>
+      <c r="C240" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
+      <c r="A241" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B241" t="s">
+        <v>565</v>
+      </c>
+      <c r="C241" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
+      <c r="A242" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B242" t="s">
+        <v>566</v>
+      </c>
+      <c r="C242" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
+      <c r="A243" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B243" t="s">
+        <v>567</v>
+      </c>
+      <c r="C243" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
+      <c r="A244" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B244" t="s">
+        <v>568</v>
+      </c>
+      <c r="C244" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
+      <c r="A245" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B245" t="s">
+        <v>569</v>
+      </c>
+      <c r="C245" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
+      <c r="A246" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B246" t="s">
+        <v>570</v>
+      </c>
+      <c r="C246" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
+      <c r="A247" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B247" t="s">
+        <v>571</v>
+      </c>
+      <c r="C247" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
+      <c r="A248" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B248" t="s">
+        <v>584</v>
+      </c>
+      <c r="C248" t="s">
+        <v>572</v>
+      </c>
+      <c r="F248" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
+      <c r="A249" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B249" t="s">
+        <v>585</v>
+      </c>
+      <c r="C249" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
+      <c r="A250" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B250" t="s">
+        <v>586</v>
+      </c>
+      <c r="C250" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
+      <c r="A251" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B251" t="s">
+        <v>587</v>
+      </c>
+      <c r="C251" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
+      <c r="A252" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B252" t="s">
+        <v>588</v>
+      </c>
+      <c r="C252" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
+      <c r="A253" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B253" t="s">
+        <v>589</v>
+      </c>
+      <c r="C253" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
+      <c r="A254" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B254" t="s">
+        <v>590</v>
+      </c>
+      <c r="C254" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
+      <c r="A255" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B255" t="s">
+        <v>591</v>
+      </c>
+      <c r="C255" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
+      <c r="A256" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B256" t="s">
+        <v>587</v>
+      </c>
+      <c r="C256" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
+      <c r="A257" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B257" t="s">
+        <v>592</v>
+      </c>
+      <c r="C257" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
+      <c r="A258" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B258" t="s">
+        <v>593</v>
+      </c>
+      <c r="C258" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
+      <c r="A259" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B259" t="s">
+        <v>594</v>
+      </c>
+      <c r="C259" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
+      <c r="A260" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B260" t="s">
+        <v>603</v>
+      </c>
+      <c r="C260" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
+      <c r="A261" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B261" t="s">
+        <v>604</v>
+      </c>
+      <c r="C261" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
+      <c r="A262" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B262" t="s">
+        <v>605</v>
+      </c>
+      <c r="C262" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
+      <c r="A263" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B263" t="s">
+        <v>606</v>
+      </c>
+      <c r="C263" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
+      <c r="A264" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B264" t="s">
+        <v>607</v>
+      </c>
+      <c r="C264" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
+      <c r="A265" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B265" t="s">
+        <v>608</v>
+      </c>
+      <c r="C265" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
+      <c r="A266" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B266" t="s">
+        <v>609</v>
+      </c>
+      <c r="C266" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
+      <c r="A267" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B267" t="s">
+        <v>629</v>
+      </c>
+      <c r="C267" t="s">
+        <v>610</v>
+      </c>
+      <c r="F267" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
+      <c r="A268" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B268" t="s">
+        <v>630</v>
+      </c>
+      <c r="C268" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
+      <c r="A269" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B269" t="s">
+        <v>631</v>
+      </c>
+      <c r="C269" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
+      <c r="A270" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B270" t="s">
+        <v>632</v>
+      </c>
+      <c r="C270" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
+      <c r="A271" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B271" t="s">
+        <v>633</v>
+      </c>
+      <c r="C271" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
+      <c r="A272" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B272" t="s">
+        <v>634</v>
+      </c>
+      <c r="C272" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B273" t="s">
+        <v>635</v>
+      </c>
+      <c r="C273" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B274" t="s">
+        <v>636</v>
+      </c>
+      <c r="C274" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B275" t="s">
+        <v>637</v>
+      </c>
+      <c r="C275" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B276" t="s">
+        <v>386</v>
+      </c>
+      <c r="C276" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B277" t="s">
+        <v>313</v>
+      </c>
+      <c r="C277" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B278" t="s">
+        <v>638</v>
+      </c>
+      <c r="C278" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B279" t="s">
+        <v>639</v>
+      </c>
+      <c r="C279" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B280" t="s">
+        <v>640</v>
+      </c>
+      <c r="C280" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B281" t="s">
+        <v>641</v>
+      </c>
+      <c r="C281" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B282" t="s">
+        <v>642</v>
+      </c>
+      <c r="C282" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B283" t="s">
+        <v>417</v>
+      </c>
+      <c r="C283" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B284" t="s">
+        <v>418</v>
+      </c>
+      <c r="C284" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B285" t="s">
+        <v>661</v>
+      </c>
+      <c r="C285" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B286" t="s">
+        <v>662</v>
+      </c>
+      <c r="C286" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B287" t="s">
+        <v>663</v>
+      </c>
+      <c r="C287" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B288" t="s">
+        <v>421</v>
+      </c>
+      <c r="C288" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B289" t="s">
+        <v>358</v>
+      </c>
+      <c r="C289" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B290" t="s">
+        <v>664</v>
+      </c>
+      <c r="C290" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B291" t="s">
+        <v>515</v>
+      </c>
+      <c r="C291" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B292" t="s">
+        <v>665</v>
+      </c>
+      <c r="C292" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B293" t="s">
+        <v>666</v>
+      </c>
+      <c r="C293" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B294" t="s">
+        <v>667</v>
+      </c>
+      <c r="C294" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B295" t="s">
+        <v>668</v>
+      </c>
+      <c r="C295" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B296" t="s">
+        <v>430</v>
+      </c>
+      <c r="C296" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B297" t="s">
+        <v>281</v>
+      </c>
+      <c r="C297" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B298" t="s">
+        <v>669</v>
+      </c>
+      <c r="C298" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B299" t="s">
+        <v>670</v>
+      </c>
+      <c r="C299" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B300" t="s">
+        <v>671</v>
+      </c>
+      <c r="C300" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B301" t="s">
+        <v>672</v>
+      </c>
+      <c r="C301" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B302" t="s">
+        <v>673</v>
+      </c>
+      <c r="C302" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B303" t="s">
+        <v>678</v>
+      </c>
+      <c r="C303" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B304" t="s">
+        <v>679</v>
+      </c>
+      <c r="C304" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
+      <c r="A305" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B305" t="s">
+        <v>680</v>
+      </c>
+      <c r="C305" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
+      <c r="A306" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B306" t="s">
+        <v>681</v>
+      </c>
+      <c r="C306" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
+      <c r="A307" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B307" t="s">
+        <v>682</v>
+      </c>
+      <c r="C307" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
+      <c r="A308" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B308" t="s">
+        <v>683</v>
+      </c>
+      <c r="C308" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
+      <c r="A309" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B309" t="s">
+        <v>702</v>
+      </c>
+      <c r="C309" t="s">
+        <v>684</v>
+      </c>
+      <c r="F309" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
+      <c r="A310" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B310" t="s">
+        <v>703</v>
+      </c>
+      <c r="C310" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
+      <c r="A311" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B311" t="s">
+        <v>704</v>
+      </c>
+      <c r="C311" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
+      <c r="A312" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B312" t="s">
+        <v>705</v>
+      </c>
+      <c r="C312" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
+      <c r="A313" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B313" t="s">
+        <v>706</v>
+      </c>
+      <c r="C313" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
+      <c r="A314" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B314" t="s">
+        <v>707</v>
+      </c>
+      <c r="C314" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
+      <c r="A315" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B315" t="s">
+        <v>708</v>
+      </c>
+      <c r="C315" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
+      <c r="A316" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B316" t="s">
+        <v>709</v>
+      </c>
+      <c r="C316" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
+      <c r="A317" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B317" t="s">
+        <v>710</v>
+      </c>
+      <c r="C317" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
+      <c r="A318" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B318" t="s">
+        <v>711</v>
+      </c>
+      <c r="C318" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
+      <c r="A319" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B319" t="s">
+        <v>712</v>
+      </c>
+      <c r="C319" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
+      <c r="A320" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B320" t="s">
+        <v>713</v>
+      </c>
+      <c r="C320" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B321" t="s">
+        <v>714</v>
+      </c>
+      <c r="C321" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B322" t="s">
+        <v>715</v>
+      </c>
+      <c r="C322" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B323" t="s">
+        <v>716</v>
+      </c>
+      <c r="C323" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B324" t="s">
+        <v>717</v>
+      </c>
+      <c r="C324" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B325" t="s">
+        <v>718</v>
+      </c>
+      <c r="C325" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B326" t="s">
+        <v>719</v>
+      </c>
+      <c r="C326" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B327" t="s">
+        <v>738</v>
+      </c>
+      <c r="C327" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B328" t="s">
+        <v>739</v>
+      </c>
+      <c r="C328" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B329" t="s">
+        <v>740</v>
+      </c>
+      <c r="C329" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B330" t="s">
+        <v>741</v>
+      </c>
+      <c r="C330" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B331" t="s">
+        <v>742</v>
+      </c>
+      <c r="C331" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B332" t="s">
+        <v>743</v>
+      </c>
+      <c r="C332" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B333" t="s">
+        <v>744</v>
+      </c>
+      <c r="C333" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B334" t="s">
+        <v>745</v>
+      </c>
+      <c r="C334" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B335" t="s">
+        <v>746</v>
+      </c>
+      <c r="C335" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B336" t="s">
+        <v>744</v>
+      </c>
+      <c r="C336" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B337" t="s">
+        <v>747</v>
+      </c>
+      <c r="C337" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B338" t="s">
+        <v>748</v>
+      </c>
+      <c r="C338" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B339" t="s">
+        <v>749</v>
+      </c>
+      <c r="C339" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B340" t="s">
+        <v>708</v>
+      </c>
+      <c r="C340" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B341" t="s">
+        <v>750</v>
+      </c>
+      <c r="C341" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B342" t="s">
+        <v>751</v>
+      </c>
+      <c r="C342" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B343" t="s">
+        <v>752</v>
+      </c>
+      <c r="C343" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B344" t="s">
+        <v>753</v>
+      </c>
+      <c r="C344" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B345" t="s">
+        <v>761</v>
+      </c>
+      <c r="C345" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B346" t="s">
+        <v>762</v>
+      </c>
+      <c r="C346" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B347" t="s">
+        <v>745</v>
+      </c>
+      <c r="C347" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B348" t="s">
+        <v>763</v>
+      </c>
+      <c r="C348" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B349" t="s">
+        <v>764</v>
+      </c>
+      <c r="C349" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B350" t="s">
+        <v>765</v>
+      </c>
+      <c r="C350" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" t="s">
+        <v>183</v>
+      </c>
+      <c r="B351" t="s">
+        <v>766</v>
+      </c>
+      <c r="C351" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" t="s">
+        <v>184</v>
+      </c>
+      <c r="B352" t="s">
+        <v>767</v>
+      </c>
+      <c r="C352" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B353" t="s">
+        <v>768</v>
+      </c>
+      <c r="C353" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B354" t="s">
+        <v>787</v>
+      </c>
+      <c r="C354" t="s">
+        <v>769</v>
+      </c>
+      <c r="F354" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B355" t="s">
+        <v>788</v>
+      </c>
+      <c r="C355" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B356" t="s">
+        <v>789</v>
+      </c>
+      <c r="C356" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B357" t="s">
+        <v>790</v>
+      </c>
+      <c r="C357" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B358" t="s">
+        <v>791</v>
+      </c>
+      <c r="C358" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B359" t="s">
+        <v>792</v>
+      </c>
+      <c r="C359" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B360" t="s">
+        <v>793</v>
+      </c>
+      <c r="C360" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B361" t="s">
+        <v>791</v>
+      </c>
+      <c r="C361" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B362" t="s">
+        <v>794</v>
+      </c>
+      <c r="C362" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B363" t="s">
+        <v>795</v>
+      </c>
+      <c r="C363" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B364" t="s">
+        <v>791</v>
+      </c>
+      <c r="C364" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B365" t="s">
+        <v>796</v>
+      </c>
+      <c r="C365" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B366" t="s">
+        <v>797</v>
+      </c>
+      <c r="C366" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B367" t="s">
+        <v>798</v>
+      </c>
+      <c r="C367" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B368" t="s">
+        <v>791</v>
+      </c>
+      <c r="C368" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B369" t="s">
+        <v>799</v>
+      </c>
+      <c r="C369" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B370" t="s">
+        <v>800</v>
+      </c>
+      <c r="C370" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" t="s">
+        <v>161</v>
+      </c>
+      <c r="B371" t="s">
+        <v>103</v>
+      </c>
+      <c r="C371" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B372" t="s">
+        <v>820</v>
+      </c>
+      <c r="C372" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B373" t="s">
+        <v>821</v>
+      </c>
+      <c r="C373" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B374" t="s">
+        <v>822</v>
+      </c>
+      <c r="C374" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B375" t="s">
+        <v>823</v>
+      </c>
+      <c r="C375" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" t="s">
+        <v>181</v>
+      </c>
+      <c r="B376" t="s">
+        <v>123</v>
+      </c>
+      <c r="C376" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B377" t="s">
+        <v>824</v>
+      </c>
+      <c r="C377" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B378" t="s">
+        <v>825</v>
+      </c>
+      <c r="C378" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B379" t="s">
+        <v>826</v>
+      </c>
+      <c r="C379" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B380" t="s">
+        <v>796</v>
+      </c>
+      <c r="C380" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B381" t="s">
+        <v>827</v>
+      </c>
+      <c r="C381" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B382" t="s">
+        <v>828</v>
+      </c>
+      <c r="C382" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B383" t="s">
+        <v>829</v>
+      </c>
+      <c r="C383" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B384" t="s">
+        <v>830</v>
+      </c>
+      <c r="C384" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" t="s">
+        <v>167</v>
+      </c>
+      <c r="B385" t="s">
+        <v>831</v>
+      </c>
+      <c r="C385" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B386" t="s">
+        <v>832</v>
+      </c>
+      <c r="C386" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B387" t="s">
+        <v>833</v>
+      </c>
+      <c r="C387" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B388" t="s">
+        <v>834</v>
+      </c>
+      <c r="C388" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B389" t="s">
+        <v>835</v>
+      </c>
+      <c r="C389" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B390" t="s">
+        <v>847</v>
+      </c>
+      <c r="C390" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B391" t="s">
+        <v>848</v>
+      </c>
+      <c r="C391" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B392" t="s">
+        <v>849</v>
+      </c>
+      <c r="C392" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B393" t="s">
+        <v>850</v>
+      </c>
+      <c r="C393" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B394" t="s">
+        <v>851</v>
+      </c>
+      <c r="C394" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B395" t="s">
+        <v>852</v>
+      </c>
+      <c r="C395" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B396" t="s">
+        <v>853</v>
+      </c>
+      <c r="C396" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B397" t="s">
+        <v>854</v>
+      </c>
+      <c r="C397" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B398" t="s">
+        <v>855</v>
+      </c>
+      <c r="C398" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B399" t="s">
+        <v>856</v>
+      </c>
+      <c r="C399" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B400" t="s">
+        <v>857</v>
+      </c>
+      <c r="C400" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>187</v>
+      </c>
+      <c r="B401" t="s">
+        <v>858</v>
+      </c>
+      <c r="C401" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B402" t="s">
+        <v>877</v>
+      </c>
+      <c r="C402" t="s">
+        <v>859</v>
+      </c>
+      <c r="F402" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B403" t="s">
+        <v>878</v>
+      </c>
+      <c r="C403" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B404" t="s">
+        <v>879</v>
+      </c>
+      <c r="C404" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B405" t="s">
+        <v>880</v>
+      </c>
+      <c r="C405" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B406" t="s">
+        <v>881</v>
+      </c>
+      <c r="C406" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B407" t="s">
+        <v>882</v>
+      </c>
+      <c r="C407" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B408" t="s">
+        <v>883</v>
+      </c>
+      <c r="C408" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B409" t="s">
+        <v>884</v>
+      </c>
+      <c r="C409" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B410" t="s">
+        <v>885</v>
+      </c>
+      <c r="C410" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B411" t="s">
+        <v>886</v>
+      </c>
+      <c r="C411" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B412" t="s">
+        <v>887</v>
+      </c>
+      <c r="C412" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B413" t="s">
+        <v>888</v>
+      </c>
+      <c r="C413" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B414" t="s">
+        <v>889</v>
+      </c>
+      <c r="C414" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
+      <c r="A415" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B415" t="s">
+        <v>890</v>
+      </c>
+      <c r="C415" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
+      <c r="A416" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B416" t="s">
+        <v>891</v>
+      </c>
+      <c r="C416" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B417" t="s">
+        <v>888</v>
+      </c>
+      <c r="C417" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B418" t="s">
+        <v>892</v>
+      </c>
+      <c r="C418" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B419" t="s">
+        <v>893</v>
+      </c>
+      <c r="C419" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B420" t="s">
+        <v>910</v>
+      </c>
+      <c r="C420" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B421" t="s">
+        <v>911</v>
+      </c>
+      <c r="C421" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B422" t="s">
+        <v>912</v>
+      </c>
+      <c r="C422" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B423" t="s">
+        <v>913</v>
+      </c>
+      <c r="C423" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B424" t="s">
+        <v>914</v>
+      </c>
+      <c r="C424" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B425" t="s">
+        <v>915</v>
+      </c>
+      <c r="C425" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B426" t="s">
+        <v>916</v>
+      </c>
+      <c r="C426" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B427" t="s">
+        <v>917</v>
+      </c>
+      <c r="C427" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B428" t="s">
+        <v>918</v>
+      </c>
+      <c r="C428" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B429" t="s">
+        <v>883</v>
+      </c>
+      <c r="C429" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B430" t="s">
+        <v>919</v>
+      </c>
+      <c r="C430" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B431" t="s">
+        <v>203</v>
+      </c>
+      <c r="C431" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B432" t="s">
+        <v>920</v>
+      </c>
+      <c r="C432" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
+      <c r="A433" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B433" t="s">
+        <v>921</v>
+      </c>
+      <c r="C433" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
+      <c r="A434" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B434" t="s">
+        <v>922</v>
+      </c>
+      <c r="C434" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
+      <c r="A435" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B435" t="s">
+        <v>923</v>
+      </c>
+      <c r="C435" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
+      <c r="A436" t="s">
+        <v>183</v>
+      </c>
+      <c r="B436" t="s">
+        <v>924</v>
+      </c>
+      <c r="C436" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
+      <c r="A437" t="s">
+        <v>184</v>
+      </c>
+      <c r="B437" t="s">
+        <v>925</v>
+      </c>
+      <c r="C437" t="s">
+        <v>321</v>
+      </c>
+      <c r="F437" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
+      <c r="A438" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B438" t="s">
+        <v>940</v>
+      </c>
+      <c r="C438" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
+      <c r="A439" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B439" t="s">
+        <v>941</v>
+      </c>
+      <c r="C439" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
+      <c r="A440" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B440" t="s">
+        <v>942</v>
+      </c>
+      <c r="C440" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
+      <c r="A441" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B441" t="s">
+        <v>943</v>
+      </c>
+      <c r="C441" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
+      <c r="A442" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B442" t="s">
+        <v>944</v>
+      </c>
+      <c r="C442" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
+      <c r="A443" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B443" t="s">
+        <v>945</v>
+      </c>
+      <c r="C443" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
+      <c r="A444" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B444" t="s">
+        <v>946</v>
+      </c>
+      <c r="C444" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
+      <c r="A445" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B445" t="s">
+        <v>947</v>
+      </c>
+      <c r="C445" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
+      <c r="A446" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B446" t="s">
+        <v>948</v>
+      </c>
+      <c r="C446" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
+      <c r="A447" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B447" t="s">
+        <v>949</v>
+      </c>
+      <c r="C447" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
+      <c r="A448" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B448" t="s">
+        <v>950</v>
+      </c>
+      <c r="C448" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
+      <c r="A449" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B449" t="s">
+        <v>951</v>
+      </c>
+      <c r="C449" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
+      <c r="A450" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B450" t="s">
+        <v>952</v>
+      </c>
+      <c r="C450" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
+      <c r="A451" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B451" t="s">
+        <v>953</v>
+      </c>
+      <c r="C451" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
+      <c r="A452" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B452" t="s">
+        <v>965</v>
+      </c>
+      <c r="C452" t="s">
+        <v>955</v>
+      </c>
+      <c r="F452" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
+      <c r="A453" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B453" t="s">
+        <v>966</v>
+      </c>
+      <c r="C453" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
+      <c r="A454" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B454" t="s">
+        <v>967</v>
+      </c>
+      <c r="C454" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
+      <c r="A455" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B455" t="s">
+        <v>968</v>
+      </c>
+      <c r="C455" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
+      <c r="A456" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B456" t="s">
+        <v>969</v>
+      </c>
+      <c r="C456" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
+      <c r="A457" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B457" t="s">
+        <v>970</v>
+      </c>
+      <c r="C457" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
+      <c r="A458" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B458" t="s">
+        <v>971</v>
+      </c>
+      <c r="C458" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
+      <c r="A459" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B459" t="s">
+        <v>972</v>
+      </c>
+      <c r="C459" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
+      <c r="A460" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B460" t="s">
+        <v>973</v>
+      </c>
+      <c r="C460" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="16">
+      <c r="A461" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B461" t="s">
+        <v>974</v>
+      </c>
+      <c r="C461" s="7" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" ht="16">
+      <c r="A462" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B462" t="s">
+        <v>975</v>
+      </c>
+      <c r="C462" s="7" t="s">
+        <v>976</v>
       </c>
     </row>
   </sheetData>
